--- a/ol-handback/hyperV/master/localization-status.xlsx
+++ b/ol-handback/hyperV/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t>File Name</t>
   </si>
@@ -263,82 +263,82 @@
     <t>work_in_progress.md</t>
   </si>
   <si>
+    <t>EULA.md</t>
+  </si>
+  <si>
+    <t>azure_setup.md</t>
+  </si>
+  <si>
+    <t>container_setup.md</t>
+  </si>
+  <si>
+    <t>inplace_setup.md</t>
+  </si>
+  <si>
+    <t>manage_docker.md</t>
+  </si>
+  <si>
+    <t>manage_powershell.md</t>
+  </si>
+  <si>
+    <t>cmd.png</t>
+  </si>
+  <si>
+    <t>containerhost2.png</t>
+  </si>
+  <si>
+    <t>docker1.png</t>
+  </si>
+  <si>
+    <t>hello.png</t>
+  </si>
+  <si>
+    <t>newazure1.png</t>
+  </si>
+  <si>
+    <t>newazure2.png</t>
+  </si>
+  <si>
+    <t>newazure3.png</t>
+  </si>
+  <si>
+    <t>newazure6.png</t>
+  </si>
+  <si>
+    <t>newazure7.png</t>
+  </si>
+  <si>
+    <t>newazure9.png</t>
+  </si>
+  <si>
+    <t>nginx.png</t>
+  </si>
+  <si>
+    <t>quickstart.md</t>
+  </si>
+  <si>
+    <t>app_compat.md</t>
+  </si>
+  <si>
+    <t>powershell_overview.md</t>
+  </si>
+  <si>
+    <t>ps_docker_comparison.md</t>
+  </si>
+  <si>
+    <t>supported_guest_os.md</t>
+  </si>
+  <si>
+    <t>Handback failed</t>
+  </si>
+  <si>
+    <t>whats_new.md</t>
+  </si>
+  <si>
+    <t>about_overview.md</t>
+  </si>
+  <si>
     <t>containers_welcome.md</t>
-  </si>
-  <si>
-    <t>EULA.md</t>
-  </si>
-  <si>
-    <t>azure_setup.md</t>
-  </si>
-  <si>
-    <t>container_setup.md</t>
-  </si>
-  <si>
-    <t>inplace_setup.md</t>
-  </si>
-  <si>
-    <t>manage_docker.md</t>
-  </si>
-  <si>
-    <t>manage_powershell.md</t>
-  </si>
-  <si>
-    <t>cmd.png</t>
-  </si>
-  <si>
-    <t>containerhost2.png</t>
-  </si>
-  <si>
-    <t>docker1.png</t>
-  </si>
-  <si>
-    <t>hello.png</t>
-  </si>
-  <si>
-    <t>newazure1.png</t>
-  </si>
-  <si>
-    <t>newazure2.png</t>
-  </si>
-  <si>
-    <t>newazure3.png</t>
-  </si>
-  <si>
-    <t>newazure6.png</t>
-  </si>
-  <si>
-    <t>newazure7.png</t>
-  </si>
-  <si>
-    <t>newazure9.png</t>
-  </si>
-  <si>
-    <t>nginx.png</t>
-  </si>
-  <si>
-    <t>quickstart.md</t>
-  </si>
-  <si>
-    <t>app_compat.md</t>
-  </si>
-  <si>
-    <t>powershell_overview.md</t>
-  </si>
-  <si>
-    <t>ps_docker_comparison.md</t>
-  </si>
-  <si>
-    <t>supported_guest_os.md</t>
-  </si>
-  <si>
-    <t>Handback failed</t>
-  </si>
-  <si>
-    <t>whats_new.md</t>
-  </si>
-  <si>
-    <t>about_overview.md</t>
   </si>
   <si>
     <t>.gitignore</t>
@@ -1135,9 +1135,6 @@
     <t>work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf</t>
   </si>
   <si>
-    <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf</t>
   </si>
   <si>
@@ -1217,6 +1214,12 @@
     <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf</t>
   </si>
   <si>
+    <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:32:00</t>
+  </si>
+  <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf</t>
   </si>
   <si>
@@ -1310,87 +1313,87 @@
     <t>090e2dccc937df4c7a80f63b447cb733af5020a3.xlf</t>
   </si>
   <si>
+    <t>7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf</t>
+  </si>
+  <si>
+    <t>azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-10-23 11:07:15</t>
+  </si>
+  <si>
+    <t>2015-10-23 11:08:01</t>
+  </si>
+  <si>
+    <t>bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf</t>
+  </si>
+  <si>
+    <t>8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf</t>
+  </si>
+  <si>
+    <t>f33e1b71d387e12b9baf442cdbf79912961da149.xlf</t>
+  </si>
+  <si>
+    <t>2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf</t>
+  </si>
+  <si>
+    <t>8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf</t>
+  </si>
+  <si>
+    <t>72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf</t>
+  </si>
+  <si>
+    <t>041b88830b633f85459d3b5be24b0d68ba8071bd.xlf</t>
+  </si>
+  <si>
+    <t>a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf</t>
+  </si>
+  <si>
+    <t>c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf</t>
+  </si>
+  <si>
+    <t>supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-12-02 01:42:11</t>
+  </si>
+  <si>
+    <t>b2c94ac52ef618490102103406d0ed0e4366a42b.xlf</t>
+  </si>
+  <si>
+    <t>whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf</t>
+  </si>
+  <si>
+    <t>windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-12-28 03:44:29</t>
+  </si>
+  <si>
+    <t>2015-11-16 08:49:06</t>
+  </si>
+  <si>
+    <t>about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-12-02 01:47:46</t>
+  </si>
+  <si>
+    <t>1cd230752f52bb9786821493df48c8a5a2a2f903.xlf</t>
+  </si>
+  <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf</t>
   </si>
   <si>
-    <t>2015-10-26 09:24:13</t>
+    <t>2016-01-08 13:32:17</t>
   </si>
   <si>
     <t>2015-10-26 10:59:07</t>
   </si>
   <si>
-    <t>7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf</t>
-  </si>
-  <si>
-    <t>azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-10-23 11:07:15</t>
-  </si>
-  <si>
-    <t>2015-10-23 11:08:01</t>
-  </si>
-  <si>
-    <t>bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf</t>
-  </si>
-  <si>
-    <t>8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf</t>
-  </si>
-  <si>
-    <t>f33e1b71d387e12b9baf442cdbf79912961da149.xlf</t>
-  </si>
-  <si>
-    <t>2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf</t>
-  </si>
-  <si>
-    <t>8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf</t>
-  </si>
-  <si>
-    <t>72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf</t>
-  </si>
-  <si>
-    <t>041b88830b633f85459d3b5be24b0d68ba8071bd.xlf</t>
-  </si>
-  <si>
-    <t>a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf</t>
-  </si>
-  <si>
-    <t>c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf</t>
-  </si>
-  <si>
-    <t>supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-12-02 01:42:11</t>
-  </si>
-  <si>
-    <t>b2c94ac52ef618490102103406d0ed0e4366a42b.xlf</t>
-  </si>
-  <si>
-    <t>whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf</t>
-  </si>
-  <si>
-    <t>windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-12-28 03:44:29</t>
-  </si>
-  <si>
-    <t>2015-11-16 08:49:06</t>
-  </si>
-  <si>
-    <t>about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-12-02 01:47:46</t>
-  </si>
-  <si>
-    <t>1cd230752f52bb9786821493df48c8a5a2a2f903.xlf</t>
-  </si>
-  <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ja-jp.xlf</t>
   </si>
   <si>
@@ -1401,6 +1404,9 @@
   </si>
   <si>
     <t>hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:32:34</t>
   </si>
   <si>
     <t>supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.ja-jp.xlf</t>
@@ -3038,7 +3044,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>5</v>
@@ -3052,13 +3058,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>6</v>
@@ -3066,10 +3072,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>6</v>
@@ -3083,7 +3089,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>6</v>
@@ -3097,7 +3103,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>6</v>
@@ -5509,32 +5515,32 @@
     <hyperlink ref="A76" display="containerEcosystem.png" r:id="rId76"/>
     <hyperlink ref="A77" display="containerfund.png" r:id="rId77"/>
     <hyperlink ref="A78" display="work_in_progress.md" r:id="rId78"/>
-    <hyperlink ref="A79" display="containers_welcome.md" r:id="rId79"/>
-    <hyperlink ref="A80" display="EULA.md" r:id="rId80"/>
-    <hyperlink ref="A81" display="azure_setup.md" r:id="rId81"/>
-    <hyperlink ref="A82" display="container_setup.md" r:id="rId82"/>
-    <hyperlink ref="A83" display="inplace_setup.md" r:id="rId83"/>
-    <hyperlink ref="A84" display="manage_docker.md" r:id="rId84"/>
-    <hyperlink ref="A85" display="manage_powershell.md" r:id="rId85"/>
-    <hyperlink ref="A86" display="cmd.png" r:id="rId86"/>
-    <hyperlink ref="A87" display="containerhost2.png" r:id="rId87"/>
-    <hyperlink ref="A88" display="docker1.png" r:id="rId88"/>
-    <hyperlink ref="A89" display="hello.png" r:id="rId89"/>
-    <hyperlink ref="A90" display="newazure1.png" r:id="rId90"/>
-    <hyperlink ref="A91" display="newazure2.png" r:id="rId91"/>
-    <hyperlink ref="A92" display="newazure3.png" r:id="rId92"/>
-    <hyperlink ref="A93" display="newazure6.png" r:id="rId93"/>
-    <hyperlink ref="A94" display="newazure7.png" r:id="rId94"/>
-    <hyperlink ref="A95" display="newazure9.png" r:id="rId95"/>
-    <hyperlink ref="A96" display="nginx.png" r:id="rId96"/>
-    <hyperlink ref="A97" display="quickstart.md" r:id="rId97"/>
-    <hyperlink ref="A98" display="app_compat.md" r:id="rId98"/>
-    <hyperlink ref="A99" display="powershell_overview.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="ps_docker_comparison.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="TOC.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="supported_guest_os.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="whats_new.md" r:id="rId103"/>
-    <hyperlink ref="A104" display="about_overview.md" r:id="rId104"/>
+    <hyperlink ref="A79" display="EULA.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="azure_setup.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="container_setup.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="inplace_setup.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="manage_docker.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="manage_powershell.md" r:id="rId84"/>
+    <hyperlink ref="A85" display="cmd.png" r:id="rId85"/>
+    <hyperlink ref="A86" display="containerhost2.png" r:id="rId86"/>
+    <hyperlink ref="A87" display="docker1.png" r:id="rId87"/>
+    <hyperlink ref="A88" display="hello.png" r:id="rId88"/>
+    <hyperlink ref="A89" display="newazure1.png" r:id="rId89"/>
+    <hyperlink ref="A90" display="newazure2.png" r:id="rId90"/>
+    <hyperlink ref="A91" display="newazure3.png" r:id="rId91"/>
+    <hyperlink ref="A92" display="newazure6.png" r:id="rId92"/>
+    <hyperlink ref="A93" display="newazure7.png" r:id="rId93"/>
+    <hyperlink ref="A94" display="newazure9.png" r:id="rId94"/>
+    <hyperlink ref="A95" display="nginx.png" r:id="rId95"/>
+    <hyperlink ref="A96" display="quickstart.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="app_compat.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="powershell_overview.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="ps_docker_comparison.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="TOC.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="supported_guest_os.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="whats_new.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="about_overview.md" r:id="rId103"/>
+    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId104"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId105"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId106"/>
     <hyperlink ref="A107" display="localization.json" r:id="rId107"/>
@@ -8016,7 +8022,10 @@
         <v>278</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="86">
@@ -8027,7 +8036,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>277</v>
@@ -8036,7 +8045,7 @@
         <v>89</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>278</v>
@@ -8045,7 +8054,7 @@
         <v>283</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87">
@@ -8056,7 +8065,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>277</v>
@@ -8065,7 +8074,7 @@
         <v>90</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>278</v>
@@ -8074,7 +8083,7 @@
         <v>283</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88">
@@ -8085,7 +8094,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>277</v>
@@ -8094,7 +8103,7 @@
         <v>91</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>278</v>
@@ -8103,7 +8112,7 @@
         <v>283</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89">
@@ -8132,7 +8141,7 @@
         <v>283</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90">
@@ -8143,7 +8152,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>277</v>
@@ -8152,7 +8161,7 @@
         <v>93</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>278</v>
@@ -8161,7 +8170,7 @@
         <v>283</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91">
@@ -8190,7 +8199,7 @@
         <v>283</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92">
@@ -8219,7 +8228,7 @@
         <v>283</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93">
@@ -8248,7 +8257,7 @@
         <v>283</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94">
@@ -8277,7 +8286,7 @@
         <v>283</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95">
@@ -8306,7 +8315,7 @@
         <v>283</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96">
@@ -8332,10 +8341,7 @@
         <v>278</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97">
@@ -8418,7 +8424,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>5</v>
@@ -8430,7 +8436,7 @@
         <v>277</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>397</v>
@@ -8444,36 +8450,27 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>398</v>
+        <v>104</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>398</v>
+        <v>315</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>315</v>
@@ -8490,7 +8487,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>315</v>
@@ -8507,16 +8504,25 @@
         <v>107</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>315</v>
+        <v>399</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105">
@@ -11626,101 +11632,101 @@
     <hyperlink ref="C78" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId282"/>
     <hyperlink ref="E78" display="work_in_progress.md" r:id="rId283"/>
     <hyperlink ref="F78" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId284"/>
-    <hyperlink ref="A79" display="containers_welcome.md" r:id="rId285"/>
-    <hyperlink ref="C79" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId286"/>
-    <hyperlink ref="E79" display="containers_welcome.md" r:id="rId287"/>
-    <hyperlink ref="F79" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId288"/>
-    <hyperlink ref="A80" display="EULA.md" r:id="rId289"/>
-    <hyperlink ref="C80" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId290"/>
-    <hyperlink ref="E80" display="EULA.md" r:id="rId291"/>
-    <hyperlink ref="F80" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId292"/>
-    <hyperlink ref="A81" display="azure_setup.md" r:id="rId293"/>
-    <hyperlink ref="C81" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId294"/>
-    <hyperlink ref="E81" display="azure_setup.md" r:id="rId295"/>
-    <hyperlink ref="F81" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId296"/>
-    <hyperlink ref="A82" display="container_setup.md" r:id="rId297"/>
-    <hyperlink ref="C82" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId298"/>
-    <hyperlink ref="E82" display="container_setup.md" r:id="rId299"/>
-    <hyperlink ref="F82" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId300"/>
-    <hyperlink ref="A83" display="inplace_setup.md" r:id="rId301"/>
-    <hyperlink ref="C83" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId302"/>
-    <hyperlink ref="E83" display="inplace_setup.md" r:id="rId303"/>
-    <hyperlink ref="F83" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId304"/>
-    <hyperlink ref="A84" display="manage_docker.md" r:id="rId305"/>
-    <hyperlink ref="C84" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId306"/>
-    <hyperlink ref="E84" display="manage_docker.md" r:id="rId307"/>
-    <hyperlink ref="F84" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId308"/>
-    <hyperlink ref="A85" display="manage_powershell.md" r:id="rId309"/>
-    <hyperlink ref="C85" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId310"/>
-    <hyperlink ref="E85" display="manage_powershell.md" r:id="rId311"/>
-    <hyperlink ref="F85" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId312"/>
-    <hyperlink ref="A86" display="cmd.png" r:id="rId313"/>
-    <hyperlink ref="C86" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId314"/>
-    <hyperlink ref="E86" display="cmd.png" r:id="rId315"/>
-    <hyperlink ref="F86" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId316"/>
-    <hyperlink ref="A87" display="containerhost2.png" r:id="rId317"/>
-    <hyperlink ref="C87" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId318"/>
-    <hyperlink ref="E87" display="containerhost2.png" r:id="rId319"/>
-    <hyperlink ref="F87" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId320"/>
-    <hyperlink ref="A88" display="docker1.png" r:id="rId321"/>
-    <hyperlink ref="C88" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId322"/>
-    <hyperlink ref="E88" display="docker1.png" r:id="rId323"/>
-    <hyperlink ref="F88" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId324"/>
-    <hyperlink ref="A89" display="hello.png" r:id="rId325"/>
-    <hyperlink ref="C89" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId326"/>
-    <hyperlink ref="E89" display="hello.png" r:id="rId327"/>
-    <hyperlink ref="F89" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId328"/>
-    <hyperlink ref="A90" display="newazure1.png" r:id="rId329"/>
-    <hyperlink ref="C90" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId330"/>
-    <hyperlink ref="E90" display="newazure1.png" r:id="rId331"/>
-    <hyperlink ref="F90" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId332"/>
-    <hyperlink ref="A91" display="newazure2.png" r:id="rId333"/>
-    <hyperlink ref="C91" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId334"/>
-    <hyperlink ref="E91" display="newazure2.png" r:id="rId335"/>
-    <hyperlink ref="F91" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId336"/>
-    <hyperlink ref="A92" display="newazure3.png" r:id="rId337"/>
-    <hyperlink ref="C92" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId338"/>
-    <hyperlink ref="E92" display="newazure3.png" r:id="rId339"/>
-    <hyperlink ref="F92" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId340"/>
-    <hyperlink ref="A93" display="newazure6.png" r:id="rId341"/>
-    <hyperlink ref="C93" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId342"/>
-    <hyperlink ref="E93" display="newazure6.png" r:id="rId343"/>
-    <hyperlink ref="F93" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId344"/>
-    <hyperlink ref="A94" display="newazure7.png" r:id="rId345"/>
-    <hyperlink ref="C94" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId346"/>
-    <hyperlink ref="E94" display="newazure7.png" r:id="rId347"/>
-    <hyperlink ref="F94" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId348"/>
-    <hyperlink ref="A95" display="newazure9.png" r:id="rId349"/>
-    <hyperlink ref="C95" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId350"/>
-    <hyperlink ref="E95" display="newazure9.png" r:id="rId351"/>
-    <hyperlink ref="F95" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId352"/>
-    <hyperlink ref="A96" display="nginx.png" r:id="rId353"/>
-    <hyperlink ref="C96" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId354"/>
-    <hyperlink ref="E96" display="nginx.png" r:id="rId355"/>
-    <hyperlink ref="F96" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId356"/>
-    <hyperlink ref="A97" display="quickstart.md" r:id="rId357"/>
-    <hyperlink ref="C97" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId358"/>
-    <hyperlink ref="E97" display="quickstart.md" r:id="rId359"/>
-    <hyperlink ref="F97" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId360"/>
-    <hyperlink ref="A98" display="app_compat.md" r:id="rId361"/>
-    <hyperlink ref="C98" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId362"/>
-    <hyperlink ref="E98" display="app_compat.md" r:id="rId363"/>
-    <hyperlink ref="F98" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId364"/>
-    <hyperlink ref="A99" display="powershell_overview.md" r:id="rId365"/>
-    <hyperlink ref="C99" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId366"/>
-    <hyperlink ref="E99" display="powershell_overview.md" r:id="rId367"/>
-    <hyperlink ref="F99" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId368"/>
-    <hyperlink ref="A100" display="ps_docker_comparison.md" r:id="rId369"/>
-    <hyperlink ref="C100" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId370"/>
-    <hyperlink ref="E100" display="ps_docker_comparison.md" r:id="rId371"/>
-    <hyperlink ref="F100" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId372"/>
-    <hyperlink ref="A101" display="TOC.md" r:id="rId373"/>
-    <hyperlink ref="C101" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId374"/>
-    <hyperlink ref="E101" display="TOC.md" r:id="rId375"/>
-    <hyperlink ref="F101" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId376"/>
-    <hyperlink ref="A102" display="supported_guest_os.md" r:id="rId377"/>
-    <hyperlink ref="A103" display="whats_new.md" r:id="rId378"/>
-    <hyperlink ref="A104" display="about_overview.md" r:id="rId379"/>
+    <hyperlink ref="A79" display="EULA.md" r:id="rId285"/>
+    <hyperlink ref="C79" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId286"/>
+    <hyperlink ref="E79" display="EULA.md" r:id="rId287"/>
+    <hyperlink ref="F79" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId288"/>
+    <hyperlink ref="A80" display="azure_setup.md" r:id="rId289"/>
+    <hyperlink ref="C80" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId290"/>
+    <hyperlink ref="E80" display="azure_setup.md" r:id="rId291"/>
+    <hyperlink ref="F80" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId292"/>
+    <hyperlink ref="A81" display="container_setup.md" r:id="rId293"/>
+    <hyperlink ref="C81" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId294"/>
+    <hyperlink ref="E81" display="container_setup.md" r:id="rId295"/>
+    <hyperlink ref="F81" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId296"/>
+    <hyperlink ref="A82" display="inplace_setup.md" r:id="rId297"/>
+    <hyperlink ref="C82" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId298"/>
+    <hyperlink ref="E82" display="inplace_setup.md" r:id="rId299"/>
+    <hyperlink ref="F82" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId300"/>
+    <hyperlink ref="A83" display="manage_docker.md" r:id="rId301"/>
+    <hyperlink ref="C83" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId302"/>
+    <hyperlink ref="E83" display="manage_docker.md" r:id="rId303"/>
+    <hyperlink ref="F83" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId304"/>
+    <hyperlink ref="A84" display="manage_powershell.md" r:id="rId305"/>
+    <hyperlink ref="C84" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId306"/>
+    <hyperlink ref="E84" display="manage_powershell.md" r:id="rId307"/>
+    <hyperlink ref="F84" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId308"/>
+    <hyperlink ref="A85" display="cmd.png" r:id="rId309"/>
+    <hyperlink ref="C85" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId310"/>
+    <hyperlink ref="E85" display="cmd.png" r:id="rId311"/>
+    <hyperlink ref="F85" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId312"/>
+    <hyperlink ref="A86" display="containerhost2.png" r:id="rId313"/>
+    <hyperlink ref="C86" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId314"/>
+    <hyperlink ref="E86" display="containerhost2.png" r:id="rId315"/>
+    <hyperlink ref="F86" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId316"/>
+    <hyperlink ref="A87" display="docker1.png" r:id="rId317"/>
+    <hyperlink ref="C87" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId318"/>
+    <hyperlink ref="E87" display="docker1.png" r:id="rId319"/>
+    <hyperlink ref="F87" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId320"/>
+    <hyperlink ref="A88" display="hello.png" r:id="rId321"/>
+    <hyperlink ref="C88" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId322"/>
+    <hyperlink ref="E88" display="hello.png" r:id="rId323"/>
+    <hyperlink ref="F88" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId324"/>
+    <hyperlink ref="A89" display="newazure1.png" r:id="rId325"/>
+    <hyperlink ref="C89" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId326"/>
+    <hyperlink ref="E89" display="newazure1.png" r:id="rId327"/>
+    <hyperlink ref="F89" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId328"/>
+    <hyperlink ref="A90" display="newazure2.png" r:id="rId329"/>
+    <hyperlink ref="C90" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId330"/>
+    <hyperlink ref="E90" display="newazure2.png" r:id="rId331"/>
+    <hyperlink ref="F90" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId332"/>
+    <hyperlink ref="A91" display="newazure3.png" r:id="rId333"/>
+    <hyperlink ref="C91" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId334"/>
+    <hyperlink ref="E91" display="newazure3.png" r:id="rId335"/>
+    <hyperlink ref="F91" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId336"/>
+    <hyperlink ref="A92" display="newazure6.png" r:id="rId337"/>
+    <hyperlink ref="C92" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId338"/>
+    <hyperlink ref="E92" display="newazure6.png" r:id="rId339"/>
+    <hyperlink ref="F92" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId340"/>
+    <hyperlink ref="A93" display="newazure7.png" r:id="rId341"/>
+    <hyperlink ref="C93" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId342"/>
+    <hyperlink ref="E93" display="newazure7.png" r:id="rId343"/>
+    <hyperlink ref="F93" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId344"/>
+    <hyperlink ref="A94" display="newazure9.png" r:id="rId345"/>
+    <hyperlink ref="C94" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId346"/>
+    <hyperlink ref="E94" display="newazure9.png" r:id="rId347"/>
+    <hyperlink ref="F94" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId348"/>
+    <hyperlink ref="A95" display="nginx.png" r:id="rId349"/>
+    <hyperlink ref="C95" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId350"/>
+    <hyperlink ref="E95" display="nginx.png" r:id="rId351"/>
+    <hyperlink ref="F95" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId352"/>
+    <hyperlink ref="A96" display="quickstart.md" r:id="rId353"/>
+    <hyperlink ref="C96" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId354"/>
+    <hyperlink ref="E96" display="quickstart.md" r:id="rId355"/>
+    <hyperlink ref="F96" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId356"/>
+    <hyperlink ref="A97" display="app_compat.md" r:id="rId357"/>
+    <hyperlink ref="C97" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId358"/>
+    <hyperlink ref="E97" display="app_compat.md" r:id="rId359"/>
+    <hyperlink ref="F97" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId360"/>
+    <hyperlink ref="A98" display="powershell_overview.md" r:id="rId361"/>
+    <hyperlink ref="C98" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId362"/>
+    <hyperlink ref="E98" display="powershell_overview.md" r:id="rId363"/>
+    <hyperlink ref="F98" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId364"/>
+    <hyperlink ref="A99" display="ps_docker_comparison.md" r:id="rId365"/>
+    <hyperlink ref="C99" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId366"/>
+    <hyperlink ref="E99" display="ps_docker_comparison.md" r:id="rId367"/>
+    <hyperlink ref="F99" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId368"/>
+    <hyperlink ref="A100" display="TOC.md" r:id="rId369"/>
+    <hyperlink ref="C100" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId370"/>
+    <hyperlink ref="E100" display="TOC.md" r:id="rId371"/>
+    <hyperlink ref="F100" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId372"/>
+    <hyperlink ref="A101" display="supported_guest_os.md" r:id="rId373"/>
+    <hyperlink ref="A102" display="whats_new.md" r:id="rId374"/>
+    <hyperlink ref="A103" display="about_overview.md" r:id="rId375"/>
+    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId376"/>
+    <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId377"/>
+    <hyperlink ref="E104" display="containers_welcome.md" r:id="rId378"/>
+    <hyperlink ref="F104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId379"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId380"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId381"/>
     <hyperlink ref="A107" display="localization.json" r:id="rId382"/>
@@ -11951,19 +11957,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>279</v>
@@ -11977,19 +11983,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>279</v>
@@ -12003,19 +12009,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>279</v>
@@ -12032,7 +12038,7 @@
         <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -12041,7 +12047,7 @@
         <v>282</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>283</v>
@@ -12058,19 +12064,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>279</v>
@@ -12084,19 +12090,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>279</v>
@@ -12113,7 +12119,7 @@
         <v>287</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -12122,7 +12128,7 @@
         <v>287</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>283</v>
@@ -12142,7 +12148,7 @@
         <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -12151,7 +12157,7 @@
         <v>289</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>283</v>
@@ -12171,7 +12177,7 @@
         <v>291</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -12180,7 +12186,7 @@
         <v>291</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>283</v>
@@ -12200,7 +12206,7 @@
         <v>292</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -12209,7 +12215,7 @@
         <v>292</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>283</v>
@@ -12229,7 +12235,7 @@
         <v>294</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -12238,7 +12244,7 @@
         <v>294</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>283</v>
@@ -12258,7 +12264,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
@@ -12267,7 +12273,7 @@
         <v>295</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>283</v>
@@ -12287,7 +12293,7 @@
         <v>296</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -12296,7 +12302,7 @@
         <v>296</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>283</v>
@@ -12316,7 +12322,7 @@
         <v>298</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
@@ -12325,7 +12331,7 @@
         <v>298</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>283</v>
@@ -12345,7 +12351,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
@@ -12354,7 +12360,7 @@
         <v>300</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>283</v>
@@ -12374,7 +12380,7 @@
         <v>301</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
@@ -12383,7 +12389,7 @@
         <v>301</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>283</v>
@@ -12403,7 +12409,7 @@
         <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -12412,7 +12418,7 @@
         <v>302</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>283</v>
@@ -12432,7 +12438,7 @@
         <v>303</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>23</v>
@@ -12441,7 +12447,7 @@
         <v>303</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>283</v>
@@ -12461,7 +12467,7 @@
         <v>304</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>24</v>
@@ -12470,7 +12476,7 @@
         <v>304</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>283</v>
@@ -12490,7 +12496,7 @@
         <v>305</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
@@ -12499,7 +12505,7 @@
         <v>305</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>283</v>
@@ -12519,7 +12525,7 @@
         <v>306</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>26</v>
@@ -12528,7 +12534,7 @@
         <v>306</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>283</v>
@@ -12548,7 +12554,7 @@
         <v>307</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -12557,7 +12563,7 @@
         <v>307</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>283</v>
@@ -12577,7 +12583,7 @@
         <v>308</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
@@ -12586,7 +12592,7 @@
         <v>308</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>283</v>
@@ -12606,7 +12612,7 @@
         <v>310</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
@@ -12615,7 +12621,7 @@
         <v>310</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>283</v>
@@ -12635,7 +12641,7 @@
         <v>312</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>30</v>
@@ -12644,7 +12650,7 @@
         <v>312</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>283</v>
@@ -12664,7 +12670,7 @@
         <v>313</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>31</v>
@@ -12673,7 +12679,7 @@
         <v>313</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>283</v>
@@ -12693,7 +12699,7 @@
         <v>314</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>315</v>
@@ -12716,7 +12722,7 @@
         <v>316</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>33</v>
@@ -12725,7 +12731,7 @@
         <v>316</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>283</v>
@@ -12745,7 +12751,7 @@
         <v>317</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>34</v>
@@ -12754,7 +12760,7 @@
         <v>317</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>283</v>
@@ -12774,7 +12780,7 @@
         <v>318</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>35</v>
@@ -12783,7 +12789,7 @@
         <v>318</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>283</v>
@@ -12803,7 +12809,7 @@
         <v>319</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>36</v>
@@ -12812,7 +12818,7 @@
         <v>319</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>283</v>
@@ -12832,7 +12838,7 @@
         <v>320</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>37</v>
@@ -12841,7 +12847,7 @@
         <v>320</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>283</v>
@@ -12861,7 +12867,7 @@
         <v>321</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>38</v>
@@ -12870,7 +12876,7 @@
         <v>321</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>283</v>
@@ -12890,7 +12896,7 @@
         <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>315</v>
@@ -12913,7 +12919,7 @@
         <v>323</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>40</v>
@@ -12922,7 +12928,7 @@
         <v>323</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>283</v>
@@ -12942,7 +12948,7 @@
         <v>324</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>315</v>
@@ -12965,7 +12971,7 @@
         <v>325</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>315</v>
@@ -12988,7 +12994,7 @@
         <v>326</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>43</v>
@@ -12997,7 +13003,7 @@
         <v>326</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>283</v>
@@ -13017,7 +13023,7 @@
         <v>327</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>315</v>
@@ -13040,7 +13046,7 @@
         <v>328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>45</v>
@@ -13049,7 +13055,7 @@
         <v>328</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>283</v>
@@ -13069,7 +13075,7 @@
         <v>329</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>315</v>
@@ -13092,7 +13098,7 @@
         <v>330</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>315</v>
@@ -13115,7 +13121,7 @@
         <v>331</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>48</v>
@@ -13124,7 +13130,7 @@
         <v>331</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>283</v>
@@ -13144,7 +13150,7 @@
         <v>332</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>49</v>
@@ -13153,7 +13159,7 @@
         <v>332</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>283</v>
@@ -13173,7 +13179,7 @@
         <v>333</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>50</v>
@@ -13182,7 +13188,7 @@
         <v>333</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>283</v>
@@ -13202,7 +13208,7 @@
         <v>334</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>51</v>
@@ -13211,7 +13217,7 @@
         <v>334</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>283</v>
@@ -13231,7 +13237,7 @@
         <v>335</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>315</v>
@@ -13254,7 +13260,7 @@
         <v>337</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>53</v>
@@ -13263,7 +13269,7 @@
         <v>337</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>283</v>
@@ -13283,7 +13289,7 @@
         <v>339</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>315</v>
@@ -13306,7 +13312,7 @@
         <v>340</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>55</v>
@@ -13315,7 +13321,7 @@
         <v>340</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>283</v>
@@ -13332,19 +13338,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>279</v>
@@ -13358,19 +13364,19 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>279</v>
@@ -13384,19 +13390,19 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>279</v>
@@ -13410,19 +13416,19 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>279</v>
@@ -13436,19 +13442,19 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>279</v>
@@ -13462,19 +13468,19 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>279</v>
@@ -13488,19 +13494,19 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>279</v>
@@ -13514,19 +13520,19 @@
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>279</v>
@@ -13540,19 +13546,19 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>279</v>
@@ -13566,19 +13572,19 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>279</v>
@@ -13592,19 +13598,19 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>279</v>
@@ -13618,19 +13624,19 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>279</v>
@@ -13647,7 +13653,7 @@
         <v>353</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>315</v>
@@ -13670,7 +13676,7 @@
         <v>355</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>315</v>
@@ -13693,7 +13699,7 @@
         <v>356</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>315</v>
@@ -13716,7 +13722,7 @@
         <v>357</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>70</v>
@@ -13725,7 +13731,7 @@
         <v>357</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>283</v>
@@ -13742,19 +13748,19 @@
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>279</v>
@@ -13768,19 +13774,19 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>279</v>
@@ -13794,19 +13800,19 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>279</v>
@@ -13820,19 +13826,19 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>279</v>
@@ -13846,19 +13852,19 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>279</v>
@@ -13872,19 +13878,19 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>279</v>
@@ -13898,19 +13904,19 @@
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>279</v>
@@ -13927,7 +13933,7 @@
         <v>367</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>79</v>
@@ -13936,7 +13942,7 @@
         <v>367</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>283</v>
@@ -13956,7 +13962,7 @@
         <v>369</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>80</v>
@@ -13965,7 +13971,7 @@
         <v>369</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>283</v>
@@ -13982,19 +13988,19 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>279</v>
@@ -14008,19 +14014,19 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>279</v>
@@ -14034,19 +14040,19 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>279</v>
@@ -14060,19 +14066,19 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>279</v>
@@ -14086,19 +14092,19 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>279</v>
@@ -14112,19 +14118,19 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>279</v>
@@ -14138,19 +14144,19 @@
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>279</v>
@@ -14164,22 +14170,25 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="85">
@@ -14190,25 +14199,25 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86">
@@ -14219,25 +14228,25 @@
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87">
@@ -14248,25 +14257,25 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88">
@@ -14280,7 +14289,7 @@
         <v>385</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>92</v>
@@ -14289,13 +14298,13 @@
         <v>385</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89">
@@ -14306,25 +14315,25 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90">
@@ -14338,7 +14347,7 @@
         <v>388</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>94</v>
@@ -14347,13 +14356,13 @@
         <v>388</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91">
@@ -14367,7 +14376,7 @@
         <v>389</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>95</v>
@@ -14376,13 +14385,13 @@
         <v>389</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92">
@@ -14396,7 +14405,7 @@
         <v>390</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>96</v>
@@ -14405,13 +14414,13 @@
         <v>390</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93">
@@ -14425,7 +14434,7 @@
         <v>391</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>97</v>
@@ -14434,13 +14443,13 @@
         <v>391</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94">
@@ -14454,7 +14463,7 @@
         <v>392</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>98</v>
@@ -14463,13 +14472,13 @@
         <v>392</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>283</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95">
@@ -14480,25 +14489,22 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96">
@@ -14509,19 +14515,19 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>279</v>
@@ -14535,19 +14541,19 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>279</v>
@@ -14561,19 +14567,19 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>279</v>
@@ -14581,25 +14587,25 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>279</v>
@@ -14607,25 +14613,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>279</v>
@@ -14633,25 +14639,25 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>448</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>279</v>
@@ -14659,7 +14665,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>6</v>
@@ -14668,16 +14674,16 @@
         <v>449</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>279</v>
@@ -14685,25 +14691,25 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>279</v>
@@ -14717,19 +14723,19 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>279</v>
@@ -17839,114 +17845,114 @@
     <hyperlink ref="C77" display="090e2dccc937df4c7a80f63b447cb733af5020a3.xlf" r:id="rId279"/>
     <hyperlink ref="E77" display="work_in_progress.md" r:id="rId280"/>
     <hyperlink ref="F77" display="090e2dccc937df4c7a80f63b447cb733af5020a3.xlf" r:id="rId281"/>
-    <hyperlink ref="A78" display="containers_welcome.md" r:id="rId282"/>
-    <hyperlink ref="C78" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf" r:id="rId283"/>
-    <hyperlink ref="E78" display="containers_welcome.md" r:id="rId284"/>
-    <hyperlink ref="F78" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf" r:id="rId285"/>
-    <hyperlink ref="A79" display="EULA.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="EULA.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="azure_setup.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="azure_setup.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="container_setup.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="container_setup.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="inplace_setup.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="inplace_setup.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="manage_docker.md" r:id="rId302"/>
-    <hyperlink ref="C83" display="f33e1b71d387e12b9baf442cdbf79912961da149.xlf" r:id="rId303"/>
-    <hyperlink ref="E83" display="manage_docker.md" r:id="rId304"/>
-    <hyperlink ref="F83" display="f33e1b71d387e12b9baf442cdbf79912961da149.xlf" r:id="rId305"/>
-    <hyperlink ref="A84" display="manage_powershell.md" r:id="rId306"/>
-    <hyperlink ref="C84" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId307"/>
-    <hyperlink ref="E84" display="manage_powershell.md" r:id="rId308"/>
-    <hyperlink ref="F84" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId309"/>
-    <hyperlink ref="A85" display="cmd.png" r:id="rId310"/>
-    <hyperlink ref="C85" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId311"/>
-    <hyperlink ref="E85" display="cmd.png" r:id="rId312"/>
-    <hyperlink ref="F85" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId313"/>
-    <hyperlink ref="A86" display="containerhost2.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="containerhost2.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="docker1.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="docker1.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="hello.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="hello.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="newazure1.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="newazure1.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure2.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure2.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure3.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure3.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure6.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure6.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="newazure7.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="newazure7.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="newazure9.png" r:id="rId346"/>
-    <hyperlink ref="C94" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId347"/>
-    <hyperlink ref="E94" display="newazure9.png" r:id="rId348"/>
-    <hyperlink ref="F94" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId349"/>
-    <hyperlink ref="A95" display="nginx.png" r:id="rId350"/>
-    <hyperlink ref="C95" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId351"/>
-    <hyperlink ref="E95" display="nginx.png" r:id="rId352"/>
-    <hyperlink ref="F95" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId353"/>
-    <hyperlink ref="A96" display="quickstart.md" r:id="rId354"/>
-    <hyperlink ref="C96" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId355"/>
-    <hyperlink ref="E96" display="quickstart.md" r:id="rId356"/>
-    <hyperlink ref="F96" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId357"/>
-    <hyperlink ref="A97" display="app_compat.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="app_compat.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="powershell_overview.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="041b88830b633f85459d3b5be24b0d68ba8071bd.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="powershell_overview.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="041b88830b633f85459d3b5be24b0d68ba8071bd.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="ps_docker_comparison.md" r:id="rId366"/>
-    <hyperlink ref="C99" display="a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf" r:id="rId367"/>
-    <hyperlink ref="E99" display="ps_docker_comparison.md" r:id="rId368"/>
-    <hyperlink ref="F99" display="a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf" r:id="rId369"/>
-    <hyperlink ref="A100" display="TOC.md" r:id="rId370"/>
-    <hyperlink ref="C100" display="c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf" r:id="rId371"/>
-    <hyperlink ref="E100" display="TOC.md" r:id="rId372"/>
-    <hyperlink ref="F100" display="c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf" r:id="rId373"/>
-    <hyperlink ref="A101" display="supported_guest_os.md" r:id="rId374"/>
-    <hyperlink ref="C101" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.de-de.xlf" r:id="rId375"/>
-    <hyperlink ref="E101" display="supported_guest_os.md" r:id="rId376"/>
-    <hyperlink ref="F101" display="b2c94ac52ef618490102103406d0ed0e4366a42b.xlf" r:id="rId377"/>
-    <hyperlink ref="A102" display="whats_new.md" r:id="rId378"/>
-    <hyperlink ref="C102" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.de-de.xlf" r:id="rId379"/>
-    <hyperlink ref="E102" display="whats_new.md" r:id="rId380"/>
-    <hyperlink ref="F102" display="0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf" r:id="rId381"/>
-    <hyperlink ref="A103" display="windows_welcome.md" r:id="rId382"/>
-    <hyperlink ref="C103" display="windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.de-de.xlf" r:id="rId383"/>
-    <hyperlink ref="E103" display="windows_welcome.md" r:id="rId384"/>
-    <hyperlink ref="F103" display="windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.de-de.xlf" r:id="rId385"/>
-    <hyperlink ref="A104" display="about_overview.md" r:id="rId386"/>
-    <hyperlink ref="C104" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.de-de.xlf" r:id="rId387"/>
-    <hyperlink ref="E104" display="about_overview.md" r:id="rId388"/>
-    <hyperlink ref="F104" display="1cd230752f52bb9786821493df48c8a5a2a2f903.xlf" r:id="rId389"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId282"/>
+    <hyperlink ref="C78" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId283"/>
+    <hyperlink ref="E78" display="EULA.md" r:id="rId284"/>
+    <hyperlink ref="F78" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId285"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId286"/>
+    <hyperlink ref="C79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf" r:id="rId287"/>
+    <hyperlink ref="E79" display="azure_setup.md" r:id="rId288"/>
+    <hyperlink ref="F79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf" r:id="rId289"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="container_setup.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="inplace_setup.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="f33e1b71d387e12b9baf442cdbf79912961da149.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="manage_docker.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="f33e1b71d387e12b9baf442cdbf79912961da149.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="manage_powershell.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId306"/>
+    <hyperlink ref="C84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId307"/>
+    <hyperlink ref="E84" display="cmd.png" r:id="rId308"/>
+    <hyperlink ref="F84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId309"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId310"/>
+    <hyperlink ref="C85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId311"/>
+    <hyperlink ref="E85" display="containerhost2.png" r:id="rId312"/>
+    <hyperlink ref="F85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId313"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId314"/>
+    <hyperlink ref="C86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId315"/>
+    <hyperlink ref="E86" display="docker1.png" r:id="rId316"/>
+    <hyperlink ref="F86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId317"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="hello.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="newazure1.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="newazure2.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="newazure3.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure6.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure7.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure9.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="nginx.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId350"/>
+    <hyperlink ref="C95" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId351"/>
+    <hyperlink ref="E95" display="quickstart.md" r:id="rId352"/>
+    <hyperlink ref="F95" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId353"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId354"/>
+    <hyperlink ref="C96" display="72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf" r:id="rId355"/>
+    <hyperlink ref="E96" display="app_compat.md" r:id="rId356"/>
+    <hyperlink ref="F96" display="72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf" r:id="rId357"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId358"/>
+    <hyperlink ref="C97" display="041b88830b633f85459d3b5be24b0d68ba8071bd.xlf" r:id="rId359"/>
+    <hyperlink ref="E97" display="powershell_overview.md" r:id="rId360"/>
+    <hyperlink ref="F97" display="041b88830b633f85459d3b5be24b0d68ba8071bd.xlf" r:id="rId361"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="ps_docker_comparison.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="TOC.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId370"/>
+    <hyperlink ref="C100" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.de-de.xlf" r:id="rId371"/>
+    <hyperlink ref="E100" display="supported_guest_os.md" r:id="rId372"/>
+    <hyperlink ref="F100" display="b2c94ac52ef618490102103406d0ed0e4366a42b.xlf" r:id="rId373"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId374"/>
+    <hyperlink ref="C101" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.de-de.xlf" r:id="rId375"/>
+    <hyperlink ref="E101" display="whats_new.md" r:id="rId376"/>
+    <hyperlink ref="F101" display="0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf" r:id="rId377"/>
+    <hyperlink ref="A102" display="windows_welcome.md" r:id="rId378"/>
+    <hyperlink ref="C102" display="windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.de-de.xlf" r:id="rId379"/>
+    <hyperlink ref="E102" display="windows_welcome.md" r:id="rId380"/>
+    <hyperlink ref="F102" display="windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.de-de.xlf" r:id="rId381"/>
+    <hyperlink ref="A103" display="about_overview.md" r:id="rId382"/>
+    <hyperlink ref="C103" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.de-de.xlf" r:id="rId383"/>
+    <hyperlink ref="E103" display="about_overview.md" r:id="rId384"/>
+    <hyperlink ref="F103" display="1cd230752f52bb9786821493df48c8a5a2a2f903.xlf" r:id="rId385"/>
+    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId386"/>
+    <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf" r:id="rId387"/>
+    <hyperlink ref="E104" display="containers_welcome.md" r:id="rId388"/>
+    <hyperlink ref="F104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf" r:id="rId389"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId390"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId391"/>
     <hyperlink ref="A107" display="localization.json" r:id="rId392"/>
@@ -18177,10 +18183,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>315</v>
@@ -18197,10 +18203,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>315</v>
@@ -18217,10 +18223,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>315</v>
@@ -18240,7 +18246,7 @@
         <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>315</v>
@@ -18254,16 +18260,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>315</v>
@@ -18274,16 +18280,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>315</v>
@@ -18300,10 +18306,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>315</v>
@@ -18320,10 +18326,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>315</v>
@@ -18343,7 +18349,7 @@
         <v>287</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>315</v>
@@ -18366,7 +18372,7 @@
         <v>289</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>315</v>
@@ -18389,7 +18395,7 @@
         <v>291</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>315</v>
@@ -18412,7 +18418,7 @@
         <v>292</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>315</v>
@@ -18435,7 +18441,7 @@
         <v>294</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>315</v>
@@ -18458,7 +18464,7 @@
         <v>295</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>315</v>
@@ -18481,7 +18487,7 @@
         <v>296</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>315</v>
@@ -18504,7 +18510,7 @@
         <v>298</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>315</v>
@@ -18527,7 +18533,7 @@
         <v>300</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>315</v>
@@ -18550,7 +18556,7 @@
         <v>301</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>315</v>
@@ -18573,7 +18579,7 @@
         <v>302</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>315</v>
@@ -18596,7 +18602,7 @@
         <v>303</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>315</v>
@@ -18619,7 +18625,7 @@
         <v>304</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>315</v>
@@ -18642,7 +18648,7 @@
         <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>315</v>
@@ -18665,7 +18671,7 @@
         <v>306</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>315</v>
@@ -18688,7 +18694,7 @@
         <v>307</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>315</v>
@@ -18711,7 +18717,7 @@
         <v>308</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>315</v>
@@ -18734,7 +18740,7 @@
         <v>310</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>315</v>
@@ -18757,7 +18763,7 @@
         <v>312</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>315</v>
@@ -18780,7 +18786,7 @@
         <v>313</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>315</v>
@@ -18803,7 +18809,7 @@
         <v>314</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>315</v>
@@ -18826,7 +18832,7 @@
         <v>316</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>315</v>
@@ -18849,7 +18855,7 @@
         <v>317</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>315</v>
@@ -18872,7 +18878,7 @@
         <v>318</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>315</v>
@@ -18895,7 +18901,7 @@
         <v>319</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>315</v>
@@ -18918,7 +18924,7 @@
         <v>320</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>315</v>
@@ -18941,7 +18947,7 @@
         <v>321</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>315</v>
@@ -18964,7 +18970,7 @@
         <v>322</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>315</v>
@@ -18987,7 +18993,7 @@
         <v>323</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>315</v>
@@ -19010,7 +19016,7 @@
         <v>324</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>315</v>
@@ -19033,7 +19039,7 @@
         <v>325</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>315</v>
@@ -19056,7 +19062,7 @@
         <v>326</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>315</v>
@@ -19079,7 +19085,7 @@
         <v>327</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>315</v>
@@ -19102,7 +19108,7 @@
         <v>328</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>315</v>
@@ -19125,7 +19131,7 @@
         <v>329</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>315</v>
@@ -19148,7 +19154,7 @@
         <v>330</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>315</v>
@@ -19171,7 +19177,7 @@
         <v>331</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>315</v>
@@ -19194,7 +19200,7 @@
         <v>332</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>315</v>
@@ -19217,7 +19223,7 @@
         <v>333</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>315</v>
@@ -19240,7 +19246,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>315</v>
@@ -19263,7 +19269,7 @@
         <v>335</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>315</v>
@@ -19286,7 +19292,7 @@
         <v>337</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>315</v>
@@ -19309,7 +19315,7 @@
         <v>339</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>315</v>
@@ -19332,7 +19338,7 @@
         <v>340</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>315</v>
@@ -19352,10 +19358,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>315</v>
@@ -19372,10 +19378,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>315</v>
@@ -19392,10 +19398,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>315</v>
@@ -19412,10 +19418,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>315</v>
@@ -19432,10 +19438,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>315</v>
@@ -19452,10 +19458,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>315</v>
@@ -19472,10 +19478,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>315</v>
@@ -19492,10 +19498,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>315</v>
@@ -19512,10 +19518,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>315</v>
@@ -19532,10 +19538,10 @@
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>315</v>
@@ -19552,10 +19558,10 @@
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>315</v>
@@ -19572,10 +19578,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>315</v>
@@ -19595,7 +19601,7 @@
         <v>353</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>315</v>
@@ -19618,7 +19624,7 @@
         <v>355</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>315</v>
@@ -19641,7 +19647,7 @@
         <v>356</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>315</v>
@@ -19664,7 +19670,7 @@
         <v>357</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>315</v>
@@ -19684,10 +19690,10 @@
         <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>315</v>
@@ -19704,10 +19710,10 @@
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>315</v>
@@ -19724,10 +19730,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>315</v>
@@ -19744,10 +19750,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>315</v>
@@ -19764,10 +19770,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>315</v>
@@ -19784,10 +19790,10 @@
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>315</v>
@@ -19798,16 +19804,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>315</v>
@@ -19824,10 +19830,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>315</v>
@@ -19844,10 +19850,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>315</v>
@@ -19867,7 +19873,7 @@
         <v>367</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>315</v>
@@ -19890,7 +19896,7 @@
         <v>369</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>315</v>
@@ -19910,10 +19916,10 @@
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>315</v>
@@ -19924,16 +19930,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>315</v>
@@ -19944,16 +19950,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>315</v>
@@ -19964,16 +19970,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>315</v>
@@ -19984,16 +19990,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>315</v>
@@ -20004,16 +20010,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>315</v>
@@ -20024,16 +20030,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>315</v>
@@ -20044,16 +20050,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>315</v>
@@ -20064,16 +20070,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>315</v>
@@ -20082,21 +20088,21 @@
         <v>283</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>315</v>
@@ -20105,21 +20111,21 @@
         <v>283</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>315</v>
@@ -20128,21 +20134,21 @@
         <v>283</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>315</v>
@@ -20151,21 +20157,21 @@
         <v>283</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>315</v>
@@ -20174,21 +20180,21 @@
         <v>283</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>315</v>
@@ -20197,21 +20203,21 @@
         <v>283</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>315</v>
@@ -20220,21 +20226,21 @@
         <v>283</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>315</v>
@@ -20243,21 +20249,21 @@
         <v>283</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>315</v>
@@ -20266,21 +20272,21 @@
         <v>283</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>315</v>
@@ -20289,21 +20295,21 @@
         <v>283</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>315</v>
@@ -20312,21 +20318,21 @@
         <v>283</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>315</v>
@@ -20337,16 +20343,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>315</v>
@@ -20357,16 +20363,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>315</v>
@@ -20377,16 +20383,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>315</v>
@@ -20403,10 +20409,10 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>315</v>

--- a/ol-handback/hyperV/master/localization-status.xlsx
+++ b/ol-handback/hyperV/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
   <si>
     <t>File Name</t>
   </si>
@@ -1218,6 +1218,9 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 14:11:03</t>
+  </si>
+  <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
   </si>
   <si>
@@ -1380,6 +1383,9 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 14:11:20</t>
+  </si>
+  <si>
     <t>about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.de-de.xlf</t>
   </si>
   <si>
@@ -1528,6 +1534,9 @@
   </si>
   <si>
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:11:36</t>
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf</t>
@@ -8497,7 +8506,7 @@
         <v>398</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>315</v>
@@ -8514,16 +8523,16 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>278</v>
@@ -11963,19 +11972,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>279</v>
@@ -11989,19 +11998,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>279</v>
@@ -12015,19 +12024,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>279</v>
@@ -12044,7 +12053,7 @@
         <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -12053,7 +12062,7 @@
         <v>282</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>283</v>
@@ -12070,19 +12079,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>279</v>
@@ -12096,19 +12105,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>279</v>
@@ -12125,7 +12134,7 @@
         <v>287</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -12134,7 +12143,7 @@
         <v>287</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>283</v>
@@ -12154,7 +12163,7 @@
         <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -12163,7 +12172,7 @@
         <v>289</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>283</v>
@@ -12183,7 +12192,7 @@
         <v>291</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -12192,7 +12201,7 @@
         <v>291</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>283</v>
@@ -12212,7 +12221,7 @@
         <v>292</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -12221,7 +12230,7 @@
         <v>292</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>283</v>
@@ -12241,7 +12250,7 @@
         <v>294</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -12250,7 +12259,7 @@
         <v>294</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>283</v>
@@ -12270,7 +12279,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -12279,7 +12288,7 @@
         <v>295</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>283</v>
@@ -12299,7 +12308,7 @@
         <v>296</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
@@ -12308,7 +12317,7 @@
         <v>296</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>283</v>
@@ -12328,7 +12337,7 @@
         <v>298</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -12337,7 +12346,7 @@
         <v>298</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>283</v>
@@ -12357,7 +12366,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -12366,7 +12375,7 @@
         <v>300</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>283</v>
@@ -12386,7 +12395,7 @@
         <v>301</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>20</v>
@@ -12395,7 +12404,7 @@
         <v>301</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>283</v>
@@ -12415,7 +12424,7 @@
         <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>21</v>
@@ -12424,7 +12433,7 @@
         <v>302</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>283</v>
@@ -12444,7 +12453,7 @@
         <v>303</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>22</v>
@@ -12453,7 +12462,7 @@
         <v>303</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>283</v>
@@ -12473,7 +12482,7 @@
         <v>304</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>23</v>
@@ -12482,7 +12491,7 @@
         <v>304</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>283</v>
@@ -12502,7 +12511,7 @@
         <v>305</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>24</v>
@@ -12511,7 +12520,7 @@
         <v>305</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>283</v>
@@ -12531,7 +12540,7 @@
         <v>306</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
@@ -12540,7 +12549,7 @@
         <v>306</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>283</v>
@@ -12560,7 +12569,7 @@
         <v>307</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>26</v>
@@ -12569,7 +12578,7 @@
         <v>307</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>283</v>
@@ -12589,7 +12598,7 @@
         <v>308</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>27</v>
@@ -12598,7 +12607,7 @@
         <v>308</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>283</v>
@@ -12618,7 +12627,7 @@
         <v>310</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>28</v>
@@ -12627,7 +12636,7 @@
         <v>310</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>283</v>
@@ -12647,7 +12656,7 @@
         <v>312</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
@@ -12656,7 +12665,7 @@
         <v>312</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>283</v>
@@ -12676,7 +12685,7 @@
         <v>313</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>30</v>
@@ -12685,7 +12694,7 @@
         <v>313</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>283</v>
@@ -12705,7 +12714,7 @@
         <v>314</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>315</v>
@@ -12728,7 +12737,7 @@
         <v>316</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>32</v>
@@ -12737,7 +12746,7 @@
         <v>316</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>283</v>
@@ -12757,7 +12766,7 @@
         <v>317</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
@@ -12766,7 +12775,7 @@
         <v>317</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>283</v>
@@ -12786,7 +12795,7 @@
         <v>318</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>34</v>
@@ -12795,7 +12804,7 @@
         <v>318</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>283</v>
@@ -12815,7 +12824,7 @@
         <v>319</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>35</v>
@@ -12824,7 +12833,7 @@
         <v>319</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>283</v>
@@ -12844,7 +12853,7 @@
         <v>320</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>36</v>
@@ -12853,7 +12862,7 @@
         <v>320</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>283</v>
@@ -12873,7 +12882,7 @@
         <v>321</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>37</v>
@@ -12882,7 +12891,7 @@
         <v>321</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>283</v>
@@ -12902,7 +12911,7 @@
         <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>315</v>
@@ -12925,7 +12934,7 @@
         <v>323</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>39</v>
@@ -12934,7 +12943,7 @@
         <v>323</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>283</v>
@@ -12954,7 +12963,7 @@
         <v>324</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>315</v>
@@ -12977,7 +12986,7 @@
         <v>325</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>315</v>
@@ -13000,7 +13009,7 @@
         <v>326</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>42</v>
@@ -13009,7 +13018,7 @@
         <v>326</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>283</v>
@@ -13029,7 +13038,7 @@
         <v>327</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>315</v>
@@ -13052,7 +13061,7 @@
         <v>328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>44</v>
@@ -13061,7 +13070,7 @@
         <v>328</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>283</v>
@@ -13081,7 +13090,7 @@
         <v>329</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>315</v>
@@ -13104,7 +13113,7 @@
         <v>330</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>315</v>
@@ -13127,7 +13136,7 @@
         <v>331</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>47</v>
@@ -13136,7 +13145,7 @@
         <v>331</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>283</v>
@@ -13156,7 +13165,7 @@
         <v>332</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>48</v>
@@ -13165,7 +13174,7 @@
         <v>332</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>283</v>
@@ -13185,7 +13194,7 @@
         <v>333</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>49</v>
@@ -13194,7 +13203,7 @@
         <v>333</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>283</v>
@@ -13214,7 +13223,7 @@
         <v>334</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>50</v>
@@ -13223,7 +13232,7 @@
         <v>334</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>283</v>
@@ -13243,7 +13252,7 @@
         <v>335</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>315</v>
@@ -13266,7 +13275,7 @@
         <v>337</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>52</v>
@@ -13275,7 +13284,7 @@
         <v>337</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>283</v>
@@ -13295,7 +13304,7 @@
         <v>339</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>315</v>
@@ -13318,7 +13327,7 @@
         <v>340</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>54</v>
@@ -13327,7 +13336,7 @@
         <v>340</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>283</v>
@@ -13344,19 +13353,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>279</v>
@@ -13370,19 +13379,19 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>279</v>
@@ -13396,19 +13405,19 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>279</v>
@@ -13422,19 +13431,19 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>279</v>
@@ -13448,19 +13457,19 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>279</v>
@@ -13474,19 +13483,19 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>279</v>
@@ -13500,19 +13509,19 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>279</v>
@@ -13526,19 +13535,19 @@
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>279</v>
@@ -13552,19 +13561,19 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>279</v>
@@ -13578,19 +13587,19 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>279</v>
@@ -13604,19 +13613,19 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>279</v>
@@ -13633,7 +13642,7 @@
         <v>352</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>315</v>
@@ -13656,7 +13665,7 @@
         <v>354</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>315</v>
@@ -13679,7 +13688,7 @@
         <v>355</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>315</v>
@@ -13702,7 +13711,7 @@
         <v>356</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>69</v>
@@ -13711,7 +13720,7 @@
         <v>356</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>283</v>
@@ -13728,19 +13737,19 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>279</v>
@@ -13754,19 +13763,19 @@
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>279</v>
@@ -13780,19 +13789,19 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>279</v>
@@ -13806,19 +13815,19 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>279</v>
@@ -13832,19 +13841,19 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>279</v>
@@ -13858,19 +13867,19 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>279</v>
@@ -13884,19 +13893,19 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>279</v>
@@ -13913,7 +13922,7 @@
         <v>364</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>77</v>
@@ -13922,7 +13931,7 @@
         <v>364</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>283</v>
@@ -13942,7 +13951,7 @@
         <v>366</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>78</v>
@@ -13951,7 +13960,7 @@
         <v>366</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>283</v>
@@ -13968,19 +13977,19 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>279</v>
@@ -13994,19 +14003,19 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>279</v>
@@ -14020,19 +14029,19 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>279</v>
@@ -14046,19 +14055,19 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>279</v>
@@ -14072,19 +14081,19 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>279</v>
@@ -14098,19 +14107,19 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>279</v>
@@ -14124,19 +14133,19 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>279</v>
@@ -14153,7 +14162,7 @@
         <v>375</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>86</v>
@@ -14162,7 +14171,7 @@
         <v>375</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>283</v>
@@ -14182,7 +14191,7 @@
         <v>377</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>87</v>
@@ -14191,7 +14200,7 @@
         <v>377</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>283</v>
@@ -14211,7 +14220,7 @@
         <v>379</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>88</v>
@@ -14220,7 +14229,7 @@
         <v>379</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>283</v>
@@ -14240,7 +14249,7 @@
         <v>381</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>89</v>
@@ -14249,7 +14258,7 @@
         <v>381</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>283</v>
@@ -14269,7 +14278,7 @@
         <v>382</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>90</v>
@@ -14278,7 +14287,7 @@
         <v>382</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>283</v>
@@ -14298,7 +14307,7 @@
         <v>384</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>91</v>
@@ -14307,7 +14316,7 @@
         <v>384</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>283</v>
@@ -14327,7 +14336,7 @@
         <v>385</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>92</v>
@@ -14336,7 +14345,7 @@
         <v>385</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>283</v>
@@ -14356,7 +14365,7 @@
         <v>386</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>93</v>
@@ -14365,7 +14374,7 @@
         <v>386</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>283</v>
@@ -14385,7 +14394,7 @@
         <v>387</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>94</v>
@@ -14394,7 +14403,7 @@
         <v>387</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>283</v>
@@ -14414,7 +14423,7 @@
         <v>388</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>95</v>
@@ -14423,7 +14432,7 @@
         <v>388</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>283</v>
@@ -14443,7 +14452,7 @@
         <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>96</v>
@@ -14452,7 +14461,7 @@
         <v>389</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>283</v>
@@ -14469,19 +14478,19 @@
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>279</v>
@@ -14495,19 +14504,19 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>279</v>
@@ -14521,19 +14530,19 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>279</v>
@@ -14547,19 +14556,19 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>279</v>
@@ -14573,19 +14582,19 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>279</v>
@@ -14599,19 +14608,19 @@
         <v>103</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>279</v>
@@ -14625,19 +14634,19 @@
         <v>103</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>279</v>
@@ -14651,19 +14660,19 @@
         <v>103</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>279</v>
@@ -14677,10 +14686,10 @@
         <v>103</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>315</v>
@@ -14697,19 +14706,19 @@
         <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>279</v>
@@ -14723,19 +14732,19 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>279</v>
@@ -18181,19 +18190,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>279</v>
@@ -18207,19 +18216,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>279</v>
@@ -18233,19 +18242,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>461</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>279</v>
@@ -18262,7 +18271,7 @@
         <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -18271,7 +18280,7 @@
         <v>282</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>283</v>
@@ -18288,19 +18297,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>279</v>
@@ -18314,19 +18323,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>279</v>
@@ -18340,19 +18349,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>279</v>
@@ -18366,19 +18375,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>279</v>
@@ -18395,7 +18404,7 @@
         <v>287</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -18404,7 +18413,7 @@
         <v>287</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>283</v>
@@ -18424,7 +18433,7 @@
         <v>289</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -18433,7 +18442,7 @@
         <v>289</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>283</v>
@@ -18453,7 +18462,7 @@
         <v>291</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -18462,7 +18471,7 @@
         <v>291</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>283</v>
@@ -18482,7 +18491,7 @@
         <v>292</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -18491,7 +18500,7 @@
         <v>292</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>283</v>
@@ -18511,7 +18520,7 @@
         <v>294</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -18520,7 +18529,7 @@
         <v>294</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>283</v>
@@ -18540,7 +18549,7 @@
         <v>295</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
@@ -18549,7 +18558,7 @@
         <v>295</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>283</v>
@@ -18569,7 +18578,7 @@
         <v>296</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
@@ -18578,7 +18587,7 @@
         <v>296</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>283</v>
@@ -18598,7 +18607,7 @@
         <v>298</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -18607,7 +18616,7 @@
         <v>298</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>283</v>
@@ -18627,7 +18636,7 @@
         <v>300</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -18636,7 +18645,7 @@
         <v>300</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>283</v>
@@ -18656,7 +18665,7 @@
         <v>301</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>20</v>
@@ -18665,7 +18674,7 @@
         <v>301</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>283</v>
@@ -18685,7 +18694,7 @@
         <v>302</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
@@ -18694,7 +18703,7 @@
         <v>302</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>283</v>
@@ -18714,7 +18723,7 @@
         <v>303</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>22</v>
@@ -18723,7 +18732,7 @@
         <v>303</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>283</v>
@@ -18743,7 +18752,7 @@
         <v>304</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>23</v>
@@ -18752,7 +18761,7 @@
         <v>304</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>283</v>
@@ -18772,7 +18781,7 @@
         <v>305</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>24</v>
@@ -18781,7 +18790,7 @@
         <v>305</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>283</v>
@@ -18801,7 +18810,7 @@
         <v>306</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>25</v>
@@ -18810,7 +18819,7 @@
         <v>306</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>283</v>
@@ -18830,7 +18839,7 @@
         <v>307</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>26</v>
@@ -18839,7 +18848,7 @@
         <v>307</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>283</v>
@@ -18859,7 +18868,7 @@
         <v>308</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>27</v>
@@ -18868,7 +18877,7 @@
         <v>308</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>283</v>
@@ -18888,7 +18897,7 @@
         <v>310</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
@@ -18897,7 +18906,7 @@
         <v>310</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>283</v>
@@ -18917,7 +18926,7 @@
         <v>312</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
@@ -18926,7 +18935,7 @@
         <v>312</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>283</v>
@@ -18946,7 +18955,7 @@
         <v>313</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>30</v>
@@ -18955,7 +18964,7 @@
         <v>313</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>283</v>
@@ -18975,7 +18984,7 @@
         <v>314</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>315</v>
@@ -18998,7 +19007,7 @@
         <v>316</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>32</v>
@@ -19007,7 +19016,7 @@
         <v>316</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>283</v>
@@ -19027,7 +19036,7 @@
         <v>317</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>33</v>
@@ -19036,7 +19045,7 @@
         <v>317</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>283</v>
@@ -19056,7 +19065,7 @@
         <v>318</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>34</v>
@@ -19065,7 +19074,7 @@
         <v>318</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>283</v>
@@ -19085,7 +19094,7 @@
         <v>319</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>35</v>
@@ -19094,7 +19103,7 @@
         <v>319</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>283</v>
@@ -19114,7 +19123,7 @@
         <v>320</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>36</v>
@@ -19123,7 +19132,7 @@
         <v>320</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>283</v>
@@ -19143,7 +19152,7 @@
         <v>321</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>37</v>
@@ -19152,7 +19161,7 @@
         <v>321</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>283</v>
@@ -19172,7 +19181,7 @@
         <v>322</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>315</v>
@@ -19195,7 +19204,7 @@
         <v>323</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -19204,7 +19213,7 @@
         <v>323</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>283</v>
@@ -19224,7 +19233,7 @@
         <v>324</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>315</v>
@@ -19247,7 +19256,7 @@
         <v>325</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>315</v>
@@ -19270,7 +19279,7 @@
         <v>326</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>42</v>
@@ -19279,7 +19288,7 @@
         <v>326</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>283</v>
@@ -19299,7 +19308,7 @@
         <v>327</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>315</v>
@@ -19322,7 +19331,7 @@
         <v>328</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>44</v>
@@ -19331,7 +19340,7 @@
         <v>328</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>283</v>
@@ -19351,7 +19360,7 @@
         <v>329</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>315</v>
@@ -19374,7 +19383,7 @@
         <v>330</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>315</v>
@@ -19397,7 +19406,7 @@
         <v>331</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>47</v>
@@ -19406,7 +19415,7 @@
         <v>331</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>283</v>
@@ -19426,7 +19435,7 @@
         <v>332</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>48</v>
@@ -19435,7 +19444,7 @@
         <v>332</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>283</v>
@@ -19455,7 +19464,7 @@
         <v>333</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>49</v>
@@ -19464,7 +19473,7 @@
         <v>333</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>283</v>
@@ -19484,7 +19493,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>50</v>
@@ -19493,7 +19502,7 @@
         <v>334</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>283</v>
@@ -19513,7 +19522,7 @@
         <v>335</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>315</v>
@@ -19536,7 +19545,7 @@
         <v>337</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>52</v>
@@ -19545,7 +19554,7 @@
         <v>337</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>283</v>
@@ -19565,7 +19574,7 @@
         <v>339</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>315</v>
@@ -19588,7 +19597,7 @@
         <v>340</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>54</v>
@@ -19597,7 +19606,7 @@
         <v>340</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>283</v>
@@ -19614,19 +19623,19 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>279</v>
@@ -19640,19 +19649,19 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>279</v>
@@ -19666,19 +19675,19 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>279</v>
@@ -19692,19 +19701,19 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>279</v>
@@ -19718,19 +19727,19 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>279</v>
@@ -19744,19 +19753,19 @@
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>279</v>
@@ -19770,19 +19779,19 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>279</v>
@@ -19796,19 +19805,19 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>279</v>
@@ -19822,19 +19831,19 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>279</v>
@@ -19848,19 +19857,19 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>279</v>
@@ -19874,19 +19883,19 @@
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>279</v>
@@ -19903,7 +19912,7 @@
         <v>352</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>315</v>
@@ -19926,7 +19935,7 @@
         <v>354</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>315</v>
@@ -19949,7 +19958,7 @@
         <v>355</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>315</v>
@@ -19972,7 +19981,7 @@
         <v>356</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>69</v>
@@ -19981,7 +19990,7 @@
         <v>356</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>283</v>
@@ -19998,19 +20007,19 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>279</v>
@@ -20024,19 +20033,19 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>279</v>
@@ -20050,19 +20059,19 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>279</v>
@@ -20076,19 +20085,19 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>279</v>
@@ -20102,19 +20111,19 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>279</v>
@@ -20128,19 +20137,19 @@
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>279</v>
@@ -20154,19 +20163,19 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>279</v>
@@ -20180,19 +20189,19 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>279</v>
@@ -20209,7 +20218,7 @@
         <v>364</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>77</v>
@@ -20218,7 +20227,7 @@
         <v>364</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>283</v>
@@ -20238,7 +20247,7 @@
         <v>366</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>78</v>
@@ -20247,7 +20256,7 @@
         <v>366</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>283</v>
@@ -20264,19 +20273,19 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>279</v>
@@ -20290,19 +20299,19 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>279</v>
@@ -20316,19 +20325,19 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>279</v>
@@ -20342,19 +20351,19 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>279</v>
@@ -20368,19 +20377,19 @@
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>279</v>
@@ -20394,19 +20403,19 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>279</v>
@@ -20420,19 +20429,19 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>279</v>
@@ -20449,7 +20458,7 @@
         <v>375</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>86</v>
@@ -20458,7 +20467,7 @@
         <v>375</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>283</v>
@@ -20478,7 +20487,7 @@
         <v>377</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>87</v>
@@ -20487,7 +20496,7 @@
         <v>377</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>283</v>
@@ -20507,7 +20516,7 @@
         <v>379</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>88</v>
@@ -20516,7 +20525,7 @@
         <v>379</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>283</v>
@@ -20536,7 +20545,7 @@
         <v>381</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>89</v>
@@ -20545,7 +20554,7 @@
         <v>381</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>283</v>
@@ -20565,7 +20574,7 @@
         <v>382</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>90</v>
@@ -20574,7 +20583,7 @@
         <v>382</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>283</v>
@@ -20594,7 +20603,7 @@
         <v>384</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>91</v>
@@ -20603,7 +20612,7 @@
         <v>384</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>283</v>
@@ -20623,7 +20632,7 @@
         <v>385</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>92</v>
@@ -20632,7 +20641,7 @@
         <v>385</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>283</v>
@@ -20652,7 +20661,7 @@
         <v>386</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>93</v>
@@ -20661,7 +20670,7 @@
         <v>386</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>283</v>
@@ -20681,7 +20690,7 @@
         <v>387</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>94</v>
@@ -20690,7 +20699,7 @@
         <v>387</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>283</v>
@@ -20710,7 +20719,7 @@
         <v>388</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>95</v>
@@ -20719,7 +20728,7 @@
         <v>388</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>283</v>
@@ -20739,7 +20748,7 @@
         <v>389</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>96</v>
@@ -20748,7 +20757,7 @@
         <v>389</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>283</v>
@@ -20765,19 +20774,19 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>279</v>
@@ -20791,19 +20800,19 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>279</v>
@@ -20817,19 +20826,19 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>279</v>
@@ -20843,19 +20852,19 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>279</v>
@@ -20869,19 +20878,19 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>279</v>
@@ -20895,19 +20904,19 @@
         <v>103</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>279</v>
@@ -20921,10 +20930,10 @@
         <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>315</v>
@@ -20941,19 +20950,19 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>279</v>

--- a/ol-handback/hyperV/master/localization-status.xlsx
+++ b/ol-handback/hyperV/master/localization-status.xlsx
@@ -1218,7 +1218,7 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:11:03</t>
+    <t>2016-01-08 14:14:31</t>
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
@@ -1383,7 +1383,7 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:11:20</t>
+    <t>2016-01-08 14:14:47</t>
   </si>
   <si>
     <t>about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.de-de.xlf</t>
@@ -1536,7 +1536,7 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:11:36</t>
+    <t>2016-01-08 14:15:04</t>
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf</t>

--- a/ol-handback/hyperV/master/localization-status.xlsx
+++ b/ol-handback/hyperV/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
   <si>
     <t>File Name</t>
   </si>
@@ -1218,7 +1218,7 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:14:31</t>
+    <t>2016-01-08 16:37:46</t>
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
@@ -1383,7 +1383,7 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:14:47</t>
+    <t>2016-01-08 16:38:01</t>
   </si>
   <si>
     <t>about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.de-de.xlf</t>
@@ -1461,6 +1461,15 @@
     <t>walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf</t>
   </si>
   <si>
+    <t>TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:50:34</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:45:10</t>
+  </si>
+  <si>
     <t>checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf</t>
   </si>
   <si>
@@ -1494,6 +1503,9 @@
     <t>work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf</t>
   </si>
   <si>
+    <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf</t>
+  </si>
+  <si>
     <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf</t>
   </si>
   <si>
@@ -1527,19 +1539,10 @@
     <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf</t>
   </si>
   <si>
-    <t>TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:50:34</t>
-  </si>
-  <si>
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:15:04</t>
-  </si>
-  <si>
-    <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf</t>
+    <t>2016-01-08 16:38:19</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3103,7 @@
         <v>103</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -3128,7 +3131,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -19851,7 +19854,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>5</v>
@@ -19860,16 +19863,16 @@
         <v>480</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>480</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>279</v>
@@ -19877,22 +19880,22 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>463</v>
@@ -19903,36 +19906,39 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>352</v>
+        <v>484</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>466</v>
@@ -19949,13 +19955,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>466</v>
@@ -19972,25 +19978,19 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="G68" s="0" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>283</v>
@@ -20001,48 +20001,51 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>463</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>463</v>
@@ -20053,22 +20056,22 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>463</v>
@@ -20079,22 +20082,22 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>463</v>
@@ -20105,22 +20108,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>463</v>
@@ -20131,22 +20134,22 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>463</v>
@@ -20157,22 +20160,22 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>463</v>
@@ -20183,22 +20186,22 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>463</v>
@@ -20209,51 +20212,48 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>364</v>
+        <v>492</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>364</v>
+        <v>492</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>463</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>365</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>463</v>
@@ -20262,53 +20262,56 @@
         <v>283</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>490</v>
+        <v>366</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>490</v>
+        <v>366</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>463</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>463</v>
@@ -20319,25 +20322,25 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>279</v>
@@ -20345,22 +20348,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>463</v>
@@ -20371,22 +20374,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>463</v>
@@ -20397,22 +20400,22 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>463</v>
@@ -20423,22 +20426,22 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>463</v>
@@ -20449,80 +20452,74 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>463</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>376</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>377</v>
+        <v>500</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>377</v>
+        <v>500</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>463</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>463</v>
@@ -20531,27 +20528,27 @@
         <v>283</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>463</v>
@@ -20560,27 +20557,27 @@
         <v>283</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>463</v>
@@ -20589,27 +20586,27 @@
         <v>283</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>463</v>
@@ -20618,27 +20615,27 @@
         <v>283</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>463</v>
@@ -20652,22 +20649,22 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>463</v>
@@ -20681,22 +20678,22 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>463</v>
@@ -20710,22 +20707,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>463</v>
@@ -20734,27 +20731,27 @@
         <v>283</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>463</v>
@@ -20763,79 +20760,85 @@
         <v>283</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>497</v>
+        <v>388</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>497</v>
+        <v>388</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>463</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>463</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>463</v>
@@ -20846,22 +20849,22 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>463</v>
@@ -20872,22 +20875,22 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>463</v>
@@ -20898,22 +20901,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>463</v>
@@ -20924,19 +20927,25 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>505</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>279</v>
@@ -20944,7 +20953,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>103</v>
@@ -20953,16 +20962,16 @@
         <v>506</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>506</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>279</v>
@@ -24018,332 +24027,334 @@
     <hyperlink ref="C62" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId225"/>
     <hyperlink ref="E62" display="walkthrough_vmconnect.md" r:id="rId226"/>
     <hyperlink ref="F62" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId227"/>
-    <hyperlink ref="A63" display="checkpoints.md" r:id="rId228"/>
-    <hyperlink ref="C63" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId229"/>
-    <hyperlink ref="E63" display="checkpoints.md" r:id="rId230"/>
-    <hyperlink ref="F63" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId231"/>
-    <hyperlink ref="A64" display="export_import.md" r:id="rId232"/>
-    <hyperlink ref="C64" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId233"/>
-    <hyperlink ref="E64" display="export_import.md" r:id="rId234"/>
-    <hyperlink ref="F64" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId235"/>
-    <hyperlink ref="A65" display="HyperVManager-ConnectToHost.png" r:id="rId236"/>
-    <hyperlink ref="C65" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId237"/>
-    <hyperlink ref="A66" display="HyperVManager-ConnectToLocalHost.png" r:id="rId238"/>
-    <hyperlink ref="C66" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId239"/>
-    <hyperlink ref="A67" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId240"/>
-    <hyperlink ref="C67" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId241"/>
-    <hyperlink ref="A68" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId242"/>
-    <hyperlink ref="C68" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId243"/>
-    <hyperlink ref="E68" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId244"/>
-    <hyperlink ref="F68" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId245"/>
-    <hyperlink ref="A69" display="migrating_vms.md" r:id="rId246"/>
-    <hyperlink ref="C69" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId247"/>
-    <hyperlink ref="E69" display="migrating_vms.md" r:id="rId248"/>
-    <hyperlink ref="F69" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId249"/>
-    <hyperlink ref="A70" display="remote_host_management.md" r:id="rId250"/>
-    <hyperlink ref="C70" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId251"/>
-    <hyperlink ref="E70" display="remote_host_management.md" r:id="rId252"/>
-    <hyperlink ref="F70" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId253"/>
-    <hyperlink ref="A71" display="troubleshooting.md" r:id="rId254"/>
-    <hyperlink ref="C71" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId255"/>
-    <hyperlink ref="E71" display="troubleshooting.md" r:id="rId256"/>
-    <hyperlink ref="F71" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId257"/>
-    <hyperlink ref="A72" display="user_guide_nav.md" r:id="rId258"/>
-    <hyperlink ref="C72" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId259"/>
-    <hyperlink ref="E72" display="user_guide_nav.md" r:id="rId260"/>
-    <hyperlink ref="F72" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId261"/>
-    <hyperlink ref="A73" display="vmsession.md" r:id="rId262"/>
-    <hyperlink ref="C73" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId263"/>
-    <hyperlink ref="E73" display="vmsession.md" r:id="rId264"/>
-    <hyperlink ref="F73" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId265"/>
-    <hyperlink ref="A74" display="about_overview.md" r:id="rId266"/>
-    <hyperlink ref="C74" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId267"/>
-    <hyperlink ref="E74" display="about_overview.md" r:id="rId268"/>
-    <hyperlink ref="F74" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId269"/>
-    <hyperlink ref="A75" display="container_ecosystem.md" r:id="rId270"/>
-    <hyperlink ref="C75" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId271"/>
-    <hyperlink ref="E75" display="container_ecosystem.md" r:id="rId272"/>
-    <hyperlink ref="F75" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId273"/>
-    <hyperlink ref="A76" display="faq.md" r:id="rId274"/>
-    <hyperlink ref="C76" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId275"/>
-    <hyperlink ref="E76" display="faq.md" r:id="rId276"/>
-    <hyperlink ref="F76" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId277"/>
-    <hyperlink ref="A77" display="containerEcosystem.png" r:id="rId278"/>
-    <hyperlink ref="C77" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId279"/>
-    <hyperlink ref="E77" display="containerEcosystem.png" r:id="rId280"/>
-    <hyperlink ref="F77" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId281"/>
-    <hyperlink ref="A78" display="containerfund.png" r:id="rId282"/>
-    <hyperlink ref="C78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId283"/>
-    <hyperlink ref="E78" display="containerfund.png" r:id="rId284"/>
-    <hyperlink ref="F78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId285"/>
-    <hyperlink ref="A79" display="work_in_progress.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="work_in_progress.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="EULA.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="EULA.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="azure_setup.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="azure_setup.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="container_setup.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="container_setup.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="inplace_setup.md" r:id="rId302"/>
-    <hyperlink ref="C83" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId303"/>
-    <hyperlink ref="E83" display="inplace_setup.md" r:id="rId304"/>
-    <hyperlink ref="F83" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId305"/>
-    <hyperlink ref="A84" display="manage_docker.md" r:id="rId306"/>
-    <hyperlink ref="C84" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId307"/>
-    <hyperlink ref="E84" display="manage_docker.md" r:id="rId308"/>
-    <hyperlink ref="F84" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId309"/>
-    <hyperlink ref="A85" display="manage_powershell.md" r:id="rId310"/>
-    <hyperlink ref="C85" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId311"/>
-    <hyperlink ref="E85" display="manage_powershell.md" r:id="rId312"/>
-    <hyperlink ref="F85" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId313"/>
-    <hyperlink ref="A86" display="cmd.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="cmd.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="containerhost2.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="containerhost2.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="docker1.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="docker1.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="hello.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="hello.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure1.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure1.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure2.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure2.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure3.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure3.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="newazure6.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="newazure6.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="newazure7.png" r:id="rId346"/>
-    <hyperlink ref="C94" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId347"/>
-    <hyperlink ref="E94" display="newazure7.png" r:id="rId348"/>
-    <hyperlink ref="F94" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId349"/>
-    <hyperlink ref="A95" display="newazure9.png" r:id="rId350"/>
-    <hyperlink ref="C95" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId351"/>
-    <hyperlink ref="E95" display="newazure9.png" r:id="rId352"/>
-    <hyperlink ref="F95" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId353"/>
-    <hyperlink ref="A96" display="nginx.png" r:id="rId354"/>
-    <hyperlink ref="C96" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId355"/>
-    <hyperlink ref="E96" display="nginx.png" r:id="rId356"/>
-    <hyperlink ref="F96" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId357"/>
-    <hyperlink ref="A97" display="quickstart.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="quickstart.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="app_compat.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="app_compat.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="powershell_overview.md" r:id="rId366"/>
-    <hyperlink ref="C99" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId367"/>
-    <hyperlink ref="E99" display="powershell_overview.md" r:id="rId368"/>
-    <hyperlink ref="F99" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId369"/>
-    <hyperlink ref="A100" display="ps_docker_comparison.md" r:id="rId370"/>
-    <hyperlink ref="C100" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId371"/>
-    <hyperlink ref="E100" display="ps_docker_comparison.md" r:id="rId372"/>
-    <hyperlink ref="F100" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId373"/>
-    <hyperlink ref="A101" display="TOC.md" r:id="rId374"/>
-    <hyperlink ref="C101" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId375"/>
-    <hyperlink ref="E101" display="TOC.md" r:id="rId376"/>
-    <hyperlink ref="F101" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId377"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId378"/>
-    <hyperlink ref="C102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId379"/>
-    <hyperlink ref="E102" display="TOC.md" r:id="rId380"/>
-    <hyperlink ref="F102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId381"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId382"/>
-    <hyperlink ref="C103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId383"/>
-    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId384"/>
-    <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId385"/>
-    <hyperlink ref="E104" display="containers_welcome.md" r:id="rId386"/>
-    <hyperlink ref="F104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId387"/>
-    <hyperlink ref="A105" display=".gitignore" r:id="rId388"/>
-    <hyperlink ref="A106" display=".localization-config" r:id="rId389"/>
-    <hyperlink ref="A107" display="localization.json" r:id="rId390"/>
-    <hyperlink ref="A108" display="drawing.svg" r:id="rId391"/>
-    <hyperlink ref="A109" display="SVG-with-Hotspot.jpg" r:id="rId392"/>
-    <hyperlink ref="A110" display="try.svg" r:id="rId393"/>
-    <hyperlink ref="A111" display="Untitled-1.svg" r:id="rId394"/>
-    <hyperlink ref="A112" display="packages.config" r:id="rId395"/>
-    <hyperlink ref="A113" display="publish.mdproj" r:id="rId396"/>
-    <hyperlink ref="A114" display="README.md" r:id="rId397"/>
-    <hyperlink ref="A115" display="Repo.json" r:id="rId398"/>
-    <hyperlink ref="A116" display="Container Glyfs Release 3.pptx" r:id="rId399"/>
-    <hyperlink ref="A117" display="App-Green.png" r:id="rId400"/>
-    <hyperlink ref="A118" display="App-in-Container-Green.png" r:id="rId401"/>
-    <hyperlink ref="A119" display="App-in-Container-Green_328.png" r:id="rId402"/>
-    <hyperlink ref="A120" display="Azure--Container-Green.png" r:id="rId403"/>
-    <hyperlink ref="A121" display="Azure--Container-Green_210.png" r:id="rId404"/>
-    <hyperlink ref="A122" display="Azure--Container-Green_30.png" r:id="rId405"/>
-    <hyperlink ref="A123" display="Azure--Container-Green_328.png" r:id="rId406"/>
-    <hyperlink ref="A124" display="Azure--Container-Green_366.png" r:id="rId407"/>
-    <hyperlink ref="A125" display="Azure--Container-Green_370.png" r:id="rId408"/>
-    <hyperlink ref="A126" display="Cloud-Green.png" r:id="rId409"/>
-    <hyperlink ref="A127" display="Container-Management-Green.png" r:id="rId410"/>
-    <hyperlink ref="A128" display="Container-Storage-Green.png" r:id="rId411"/>
-    <hyperlink ref="A129" display="Linked-Container-Green.png" r:id="rId412"/>
-    <hyperlink ref="A130" display="Linked-Container-II-Green.png" r:id="rId413"/>
-    <hyperlink ref="A131" display="Linux-Container-Green.png" r:id="rId414"/>
-    <hyperlink ref="A132" display="Physical-Computer-with-App-Green.png" r:id="rId415"/>
-    <hyperlink ref="A133" display="Physical-Machine-Green.png" r:id="rId416"/>
-    <hyperlink ref="A134" display="Sample-App-1-in-Container-Green.png" r:id="rId417"/>
-    <hyperlink ref="A135" display="Sample-App-2-in-Container-Green.png" r:id="rId418"/>
-    <hyperlink ref="A136" display="Server-with-Container-Green.png" r:id="rId419"/>
-    <hyperlink ref="A137" display="Users-Developers-Green.png" r:id="rId420"/>
-    <hyperlink ref="A138" display="VM Type 3 with Container.png" r:id="rId421"/>
-    <hyperlink ref="A139" display="VM Type 3.png" r:id="rId422"/>
-    <hyperlink ref="A140" display="VM-Type-1-Green.png" r:id="rId423"/>
-    <hyperlink ref="A141" display="VM-Type-2-Green.png" r:id="rId424"/>
-    <hyperlink ref="A142" display="VM-with-App-Green.png" r:id="rId425"/>
-    <hyperlink ref="A143" display="Windows-Green.png" r:id="rId426"/>
-    <hyperlink ref="A144" display="Banner-Azure.png" r:id="rId427"/>
-    <hyperlink ref="A145" display="Banner-DevOps.png" r:id="rId428"/>
-    <hyperlink ref="A146" display="Banner-Docker.png" r:id="rId429"/>
-    <hyperlink ref="A147" display="App-in-Container-Orange.png" r:id="rId430"/>
-    <hyperlink ref="A148" display="App-Orange.png" r:id="rId431"/>
-    <hyperlink ref="A149" display="Azure--Container-Orange.png" r:id="rId432"/>
-    <hyperlink ref="A150" display="Cloud-Orange.png" r:id="rId433"/>
-    <hyperlink ref="A151" display="Container-Management-Orange.png" r:id="rId434"/>
-    <hyperlink ref="A152" display="Container-Storage-Orange.png" r:id="rId435"/>
-    <hyperlink ref="A153" display="Linked-Container-II-Orange.png" r:id="rId436"/>
-    <hyperlink ref="A154" display="Linked-Container-Orange.png" r:id="rId437"/>
-    <hyperlink ref="A155" display="Linux-Container-Orange.png" r:id="rId438"/>
-    <hyperlink ref="A156" display="o_app_container.png" r:id="rId439"/>
-    <hyperlink ref="A157" display="o_app_container2.png" r:id="rId440"/>
-    <hyperlink ref="A158" display="o_app_container3.png" r:id="rId441"/>
-    <hyperlink ref="A159" display="Physical-Computer-with-App-Orange.png" r:id="rId442"/>
-    <hyperlink ref="A160" display="Physical-Machine-Orange.png" r:id="rId443"/>
-    <hyperlink ref="A161" display="Sample-App-1-in-Container-Orange.png" r:id="rId444"/>
-    <hyperlink ref="A162" display="Sample-App-2-in-Container-Orange.png" r:id="rId445"/>
-    <hyperlink ref="A163" display="Server-with-Container-Orange.png" r:id="rId446"/>
-    <hyperlink ref="A164" display="Users-Developers-Orange.png" r:id="rId447"/>
-    <hyperlink ref="A165" display="VM Type 3 with Container.png" r:id="rId448"/>
-    <hyperlink ref="A166" display="VM Type 3.png" r:id="rId449"/>
-    <hyperlink ref="A167" display="VM-Type-1-Orange.png" r:id="rId450"/>
-    <hyperlink ref="A168" display="VM-Type-2-Orange.png" r:id="rId451"/>
-    <hyperlink ref="A169" display="VM-with-App-Orange.png" r:id="rId452"/>
-    <hyperlink ref="A170" display="Windows-Container-Orange.png" r:id="rId453"/>
-    <hyperlink ref="A171" display="App.png" r:id="rId454"/>
-    <hyperlink ref="A172" display="App1InContainer.png" r:id="rId455"/>
-    <hyperlink ref="A173" display="App2InContainer.png" r:id="rId456"/>
-    <hyperlink ref="A174" display="AppInContainer.png" r:id="rId457"/>
-    <hyperlink ref="A175" display="AzureContainer.png" r:id="rId458"/>
-    <hyperlink ref="A176" display="Cloud.png" r:id="rId459"/>
-    <hyperlink ref="A177" display="ContainerManagement.png" r:id="rId460"/>
-    <hyperlink ref="A178" display="ContainersOnServer.png" r:id="rId461"/>
-    <hyperlink ref="A179" display="ContainerStorage.png" r:id="rId462"/>
-    <hyperlink ref="A180" display="LinkedContainer.png" r:id="rId463"/>
-    <hyperlink ref="A181" display="LinkedContainers.png" r:id="rId464"/>
-    <hyperlink ref="A182" display="LinuxContainer.png" r:id="rId465"/>
-    <hyperlink ref="A183" display="PhysicalComputer.png" r:id="rId466"/>
-    <hyperlink ref="A184" display="PhysicalComputerWithApp.png" r:id="rId467"/>
-    <hyperlink ref="A185" display="Users.png" r:id="rId468"/>
-    <hyperlink ref="A186" display="VM.png" r:id="rId469"/>
-    <hyperlink ref="A187" display="VMConsole.png" r:id="rId470"/>
-    <hyperlink ref="A188" display="VMwithApp.png" r:id="rId471"/>
-    <hyperlink ref="A189" display="WindowsContainer.png" r:id="rId472"/>
-    <hyperlink ref="A190" display="logs.png" r:id="rId473"/>
-    <hyperlink ref="A191" display="MarkdownTemplateForNewArticles.txt" r:id="rId474"/>
-    <hyperlink ref="A192" display="Nuget.Config" r:id="rId475"/>
-    <hyperlink ref="A193" display="nuget.exe" r:id="rId476"/>
-    <hyperlink ref="A194" display="onboarding.txt" r:id="rId477"/>
-    <hyperlink ref="A195" display="smsnotes.txt" r:id="rId478"/>
-    <hyperlink ref="A196" display="stuff.txt" r:id="rId479"/>
-    <hyperlink ref="A197" display="center.json" r:id="rId480"/>
-    <hyperlink ref="A198" display="Docset.json" r:id="rId481"/>
-    <hyperlink ref="A199" display="ContainerNodeTitles.csv" r:id="rId482"/>
-    <hyperlink ref="A200" display="failure.txt" r:id="rId483"/>
-    <hyperlink ref="A201" display="StandardCheckpoints.png" r:id="rId484"/>
-    <hyperlink ref="A202" display="Docset.json" r:id="rId485"/>
-    <hyperlink ref="A203" display="10.png" r:id="rId486"/>
-    <hyperlink ref="A204" display="2.png" r:id="rId487"/>
-    <hyperlink ref="A205" display="3.png" r:id="rId488"/>
-    <hyperlink ref="A206" display="4.png" r:id="rId489"/>
-    <hyperlink ref="A207" display="5.png" r:id="rId490"/>
-    <hyperlink ref="A208" display="6.png" r:id="rId491"/>
-    <hyperlink ref="A209" display="7.png" r:id="rId492"/>
-    <hyperlink ref="A210" display="8.png" r:id="rId493"/>
-    <hyperlink ref="A211" display="9.png" r:id="rId494"/>
-    <hyperlink ref="A212" display="All_ContentTypeIcons_VisualWalkthrough_65.png" r:id="rId495"/>
-    <hyperlink ref="A213" display="Chat_65.png" r:id="rId496"/>
-    <hyperlink ref="A214" display="develop.png" r:id="rId497"/>
-    <hyperlink ref="A215" display="MeetsRequirements_65.png" r:id="rId498"/>
-    <hyperlink ref="A216" display="whats_new.png" r:id="rId499"/>
-    <hyperlink ref="A217" display="applied_production.png" r:id="rId500"/>
-    <hyperlink ref="A218" display="coreinfo.png" r:id="rId501"/>
-    <hyperlink ref="A219" display="EnhancedEn.png" r:id="rId502"/>
-    <hyperlink ref="A220" display="EnhancedNA.png" r:id="rId503"/>
-    <hyperlink ref="A221" display="new_vm.png" r:id="rId504"/>
-    <hyperlink ref="A222" display="new_vm2.png" r:id="rId505"/>
-    <hyperlink ref="A223" display="POSH_CP.png" r:id="rId506"/>
-    <hyperlink ref="A224" display="production_off.png" r:id="rId507"/>
-    <hyperlink ref="A225" display="production_pop-up.png" r:id="rId508"/>
-    <hyperlink ref="A226" display="rdp.png" r:id="rId509"/>
-    <hyperlink ref="A227" display="select_export.png" r:id="rId510"/>
-    <hyperlink ref="A228" display="select_folder.png" r:id="rId511"/>
-    <hyperlink ref="A229" display="standard.png" r:id="rId512"/>
-    <hyperlink ref="A230" display="virtual_switch_manager.png" r:id="rId513"/>
-    <hyperlink ref="A231" display="vmconnect_start_button.png" r:id="rId514"/>
-    <hyperlink ref="A232" display="EnterCreds.PNG" r:id="rId515"/>
-    <hyperlink ref="A233" display="HyperVManager-ConnectToRemoteHostWin8.PNG" r:id="rId516"/>
-    <hyperlink ref="A234" display="TOC.csv" r:id="rId517"/>
-    <hyperlink ref="A235" display="ContainerCreationLifeCycle.PNG" r:id="rId518"/>
-    <hyperlink ref="A236" display="containers._2.png" r:id="rId519"/>
-    <hyperlink ref="A237" display="devCreateDeployManage.png" r:id="rId520"/>
-    <hyperlink ref="A238" display="devops.png" r:id="rId521"/>
-    <hyperlink ref="A239" display="ImageCreationLifeCycle.PNG" r:id="rId522"/>
-    <hyperlink ref="A240" display="isolationSpectrum.png" r:id="rId523"/>
-    <hyperlink ref="A241" display="overheadSpectrum.png" r:id="rId524"/>
-    <hyperlink ref="A242" display="WindowsServerContainer.png" r:id="rId525"/>
-    <hyperlink ref="A243" display="Docset.json" r:id="rId526"/>
-    <hyperlink ref="A244" display="1.png" r:id="rId527"/>
-    <hyperlink ref="A245" display="explore.png" r:id="rId528"/>
-    <hyperlink ref="A246" display="question.png" r:id="rId529"/>
-    <hyperlink ref="A247" display="try.png" r:id="rId530"/>
-    <hyperlink ref="A248" display="App-in-Container-Green.png" r:id="rId531"/>
-    <hyperlink ref="A249" display="AzureGallery.PNG" r:id="rId532"/>
-    <hyperlink ref="A250" display="AzurePorts.PNG" r:id="rId533"/>
-    <hyperlink ref="A251" display="ContainerHost.PNG" r:id="rId534"/>
-    <hyperlink ref="A252" display="ContainerHost_ready.PNG" r:id="rId535"/>
-    <hyperlink ref="A253" display="create_vm.PNG" r:id="rId536"/>
-    <hyperlink ref="A254" display="create_vm2.PNG" r:id="rId537"/>
-    <hyperlink ref="A255" display="create_vm3.PNG" r:id="rId538"/>
-    <hyperlink ref="A256" display="create_vm4.png" r:id="rId539"/>
-    <hyperlink ref="A257" display="create_vm6.PNG" r:id="rId540"/>
-    <hyperlink ref="A258" display="create_vm7.PNG" r:id="rId541"/>
-    <hyperlink ref="A259" display="CreateAzureVM.PNG" r:id="rId542"/>
-    <hyperlink ref="A260" display="docker2.png" r:id="rId543"/>
-    <hyperlink ref="A261" display="docker3.png" r:id="rId544"/>
-    <hyperlink ref="A262" display="docker4.png" r:id="rId545"/>
-    <hyperlink ref="A263" display="dockerfile.png" r:id="rId546"/>
-    <hyperlink ref="A264" display="kanban.jpg" r:id="rId547"/>
-    <hyperlink ref="A265" display="newazure4.png" r:id="rId548"/>
-    <hyperlink ref="A266" display="newazure5.png" r:id="rId549"/>
-    <hyperlink ref="A267" display="newazure8.png" r:id="rId550"/>
-    <hyperlink ref="A268" display="Users-Developers-Green.png" r:id="rId551"/>
-    <hyperlink ref="A269" display="Windows-Green.png" r:id="rId552"/>
-    <hyperlink ref="A270" display="index.html" r:id="rId553"/>
+    <hyperlink ref="A63" display="TOC.md" r:id="rId228"/>
+    <hyperlink ref="C63" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId229"/>
+    <hyperlink ref="E63" display="TOC.md" r:id="rId230"/>
+    <hyperlink ref="F63" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId231"/>
+    <hyperlink ref="A64" display="checkpoints.md" r:id="rId232"/>
+    <hyperlink ref="C64" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId233"/>
+    <hyperlink ref="E64" display="checkpoints.md" r:id="rId234"/>
+    <hyperlink ref="F64" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId235"/>
+    <hyperlink ref="A65" display="export_import.md" r:id="rId236"/>
+    <hyperlink ref="C65" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId237"/>
+    <hyperlink ref="E65" display="export_import.md" r:id="rId238"/>
+    <hyperlink ref="F65" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId239"/>
+    <hyperlink ref="A66" display="HyperVManager-ConnectToHost.png" r:id="rId240"/>
+    <hyperlink ref="C66" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId241"/>
+    <hyperlink ref="A67" display="HyperVManager-ConnectToLocalHost.png" r:id="rId242"/>
+    <hyperlink ref="C67" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId243"/>
+    <hyperlink ref="A68" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId244"/>
+    <hyperlink ref="C68" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId245"/>
+    <hyperlink ref="A69" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId246"/>
+    <hyperlink ref="C69" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId247"/>
+    <hyperlink ref="E69" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId248"/>
+    <hyperlink ref="F69" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId249"/>
+    <hyperlink ref="A70" display="migrating_vms.md" r:id="rId250"/>
+    <hyperlink ref="C70" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId251"/>
+    <hyperlink ref="E70" display="migrating_vms.md" r:id="rId252"/>
+    <hyperlink ref="F70" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId253"/>
+    <hyperlink ref="A71" display="remote_host_management.md" r:id="rId254"/>
+    <hyperlink ref="C71" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId255"/>
+    <hyperlink ref="E71" display="remote_host_management.md" r:id="rId256"/>
+    <hyperlink ref="F71" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId257"/>
+    <hyperlink ref="A72" display="troubleshooting.md" r:id="rId258"/>
+    <hyperlink ref="C72" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId259"/>
+    <hyperlink ref="E72" display="troubleshooting.md" r:id="rId260"/>
+    <hyperlink ref="F72" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId261"/>
+    <hyperlink ref="A73" display="user_guide_nav.md" r:id="rId262"/>
+    <hyperlink ref="C73" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId263"/>
+    <hyperlink ref="E73" display="user_guide_nav.md" r:id="rId264"/>
+    <hyperlink ref="F73" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId265"/>
+    <hyperlink ref="A74" display="vmsession.md" r:id="rId266"/>
+    <hyperlink ref="C74" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId267"/>
+    <hyperlink ref="E74" display="vmsession.md" r:id="rId268"/>
+    <hyperlink ref="F74" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId269"/>
+    <hyperlink ref="A75" display="about_overview.md" r:id="rId270"/>
+    <hyperlink ref="C75" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId271"/>
+    <hyperlink ref="E75" display="about_overview.md" r:id="rId272"/>
+    <hyperlink ref="F75" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId273"/>
+    <hyperlink ref="A76" display="container_ecosystem.md" r:id="rId274"/>
+    <hyperlink ref="C76" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId275"/>
+    <hyperlink ref="E76" display="container_ecosystem.md" r:id="rId276"/>
+    <hyperlink ref="F76" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId277"/>
+    <hyperlink ref="A77" display="faq.md" r:id="rId278"/>
+    <hyperlink ref="C77" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId279"/>
+    <hyperlink ref="E77" display="faq.md" r:id="rId280"/>
+    <hyperlink ref="F77" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId281"/>
+    <hyperlink ref="A78" display="containerEcosystem.png" r:id="rId282"/>
+    <hyperlink ref="C78" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId283"/>
+    <hyperlink ref="E78" display="containerEcosystem.png" r:id="rId284"/>
+    <hyperlink ref="F78" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId285"/>
+    <hyperlink ref="A79" display="containerfund.png" r:id="rId286"/>
+    <hyperlink ref="C79" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId287"/>
+    <hyperlink ref="E79" display="containerfund.png" r:id="rId288"/>
+    <hyperlink ref="F79" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId289"/>
+    <hyperlink ref="A80" display="work_in_progress.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="work_in_progress.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="containers_welcome.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="containers_welcome.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="EULA.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="EULA.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="azure_setup.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="azure_setup.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="container_setup.md" r:id="rId306"/>
+    <hyperlink ref="C84" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId307"/>
+    <hyperlink ref="E84" display="container_setup.md" r:id="rId308"/>
+    <hyperlink ref="F84" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId309"/>
+    <hyperlink ref="A85" display="inplace_setup.md" r:id="rId310"/>
+    <hyperlink ref="C85" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId311"/>
+    <hyperlink ref="E85" display="inplace_setup.md" r:id="rId312"/>
+    <hyperlink ref="F85" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId313"/>
+    <hyperlink ref="A86" display="manage_docker.md" r:id="rId314"/>
+    <hyperlink ref="C86" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId315"/>
+    <hyperlink ref="E86" display="manage_docker.md" r:id="rId316"/>
+    <hyperlink ref="F86" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId317"/>
+    <hyperlink ref="A87" display="manage_powershell.md" r:id="rId318"/>
+    <hyperlink ref="C87" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId319"/>
+    <hyperlink ref="E87" display="manage_powershell.md" r:id="rId320"/>
+    <hyperlink ref="F87" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId321"/>
+    <hyperlink ref="A88" display="cmd.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="cmd.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="containerhost2.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="containerhost2.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="docker1.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="docker1.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="hello.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="hello.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure1.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure1.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure2.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure2.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="newazure3.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="newazure3.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="newazure6.png" r:id="rId350"/>
+    <hyperlink ref="C95" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId351"/>
+    <hyperlink ref="E95" display="newazure6.png" r:id="rId352"/>
+    <hyperlink ref="F95" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId353"/>
+    <hyperlink ref="A96" display="newazure7.png" r:id="rId354"/>
+    <hyperlink ref="C96" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId355"/>
+    <hyperlink ref="E96" display="newazure7.png" r:id="rId356"/>
+    <hyperlink ref="F96" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId357"/>
+    <hyperlink ref="A97" display="newazure9.png" r:id="rId358"/>
+    <hyperlink ref="C97" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId359"/>
+    <hyperlink ref="E97" display="newazure9.png" r:id="rId360"/>
+    <hyperlink ref="F97" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId361"/>
+    <hyperlink ref="A98" display="nginx.png" r:id="rId362"/>
+    <hyperlink ref="C98" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId363"/>
+    <hyperlink ref="E98" display="nginx.png" r:id="rId364"/>
+    <hyperlink ref="F98" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId365"/>
+    <hyperlink ref="A99" display="quickstart.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="quickstart.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="app_compat.md" r:id="rId370"/>
+    <hyperlink ref="C100" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId371"/>
+    <hyperlink ref="E100" display="app_compat.md" r:id="rId372"/>
+    <hyperlink ref="F100" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId373"/>
+    <hyperlink ref="A101" display="powershell_overview.md" r:id="rId374"/>
+    <hyperlink ref="C101" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId375"/>
+    <hyperlink ref="E101" display="powershell_overview.md" r:id="rId376"/>
+    <hyperlink ref="F101" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId377"/>
+    <hyperlink ref="A102" display="ps_docker_comparison.md" r:id="rId378"/>
+    <hyperlink ref="C102" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId379"/>
+    <hyperlink ref="E102" display="ps_docker_comparison.md" r:id="rId380"/>
+    <hyperlink ref="F102" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId381"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId382"/>
+    <hyperlink ref="C103" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId383"/>
+    <hyperlink ref="E103" display="TOC.md" r:id="rId384"/>
+    <hyperlink ref="F103" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId385"/>
+    <hyperlink ref="A104" display="windows_welcome1.md" r:id="rId386"/>
+    <hyperlink ref="C104" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId387"/>
+    <hyperlink ref="E104" display="windows_welcome1.md" r:id="rId388"/>
+    <hyperlink ref="F104" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId389"/>
+    <hyperlink ref="A105" display=".gitignore" r:id="rId390"/>
+    <hyperlink ref="A106" display=".localization-config" r:id="rId391"/>
+    <hyperlink ref="A107" display="localization.json" r:id="rId392"/>
+    <hyperlink ref="A108" display="drawing.svg" r:id="rId393"/>
+    <hyperlink ref="A109" display="SVG-with-Hotspot.jpg" r:id="rId394"/>
+    <hyperlink ref="A110" display="try.svg" r:id="rId395"/>
+    <hyperlink ref="A111" display="Untitled-1.svg" r:id="rId396"/>
+    <hyperlink ref="A112" display="packages.config" r:id="rId397"/>
+    <hyperlink ref="A113" display="publish.mdproj" r:id="rId398"/>
+    <hyperlink ref="A114" display="README.md" r:id="rId399"/>
+    <hyperlink ref="A115" display="Repo.json" r:id="rId400"/>
+    <hyperlink ref="A116" display="Container Glyfs Release 3.pptx" r:id="rId401"/>
+    <hyperlink ref="A117" display="App-Green.png" r:id="rId402"/>
+    <hyperlink ref="A118" display="App-in-Container-Green.png" r:id="rId403"/>
+    <hyperlink ref="A119" display="App-in-Container-Green_328.png" r:id="rId404"/>
+    <hyperlink ref="A120" display="Azure--Container-Green.png" r:id="rId405"/>
+    <hyperlink ref="A121" display="Azure--Container-Green_210.png" r:id="rId406"/>
+    <hyperlink ref="A122" display="Azure--Container-Green_30.png" r:id="rId407"/>
+    <hyperlink ref="A123" display="Azure--Container-Green_328.png" r:id="rId408"/>
+    <hyperlink ref="A124" display="Azure--Container-Green_366.png" r:id="rId409"/>
+    <hyperlink ref="A125" display="Azure--Container-Green_370.png" r:id="rId410"/>
+    <hyperlink ref="A126" display="Cloud-Green.png" r:id="rId411"/>
+    <hyperlink ref="A127" display="Container-Management-Green.png" r:id="rId412"/>
+    <hyperlink ref="A128" display="Container-Storage-Green.png" r:id="rId413"/>
+    <hyperlink ref="A129" display="Linked-Container-Green.png" r:id="rId414"/>
+    <hyperlink ref="A130" display="Linked-Container-II-Green.png" r:id="rId415"/>
+    <hyperlink ref="A131" display="Linux-Container-Green.png" r:id="rId416"/>
+    <hyperlink ref="A132" display="Physical-Computer-with-App-Green.png" r:id="rId417"/>
+    <hyperlink ref="A133" display="Physical-Machine-Green.png" r:id="rId418"/>
+    <hyperlink ref="A134" display="Sample-App-1-in-Container-Green.png" r:id="rId419"/>
+    <hyperlink ref="A135" display="Sample-App-2-in-Container-Green.png" r:id="rId420"/>
+    <hyperlink ref="A136" display="Server-with-Container-Green.png" r:id="rId421"/>
+    <hyperlink ref="A137" display="Users-Developers-Green.png" r:id="rId422"/>
+    <hyperlink ref="A138" display="VM Type 3 with Container.png" r:id="rId423"/>
+    <hyperlink ref="A139" display="VM Type 3.png" r:id="rId424"/>
+    <hyperlink ref="A140" display="VM-Type-1-Green.png" r:id="rId425"/>
+    <hyperlink ref="A141" display="VM-Type-2-Green.png" r:id="rId426"/>
+    <hyperlink ref="A142" display="VM-with-App-Green.png" r:id="rId427"/>
+    <hyperlink ref="A143" display="Windows-Green.png" r:id="rId428"/>
+    <hyperlink ref="A144" display="Banner-Azure.png" r:id="rId429"/>
+    <hyperlink ref="A145" display="Banner-DevOps.png" r:id="rId430"/>
+    <hyperlink ref="A146" display="Banner-Docker.png" r:id="rId431"/>
+    <hyperlink ref="A147" display="App-in-Container-Orange.png" r:id="rId432"/>
+    <hyperlink ref="A148" display="App-Orange.png" r:id="rId433"/>
+    <hyperlink ref="A149" display="Azure--Container-Orange.png" r:id="rId434"/>
+    <hyperlink ref="A150" display="Cloud-Orange.png" r:id="rId435"/>
+    <hyperlink ref="A151" display="Container-Management-Orange.png" r:id="rId436"/>
+    <hyperlink ref="A152" display="Container-Storage-Orange.png" r:id="rId437"/>
+    <hyperlink ref="A153" display="Linked-Container-II-Orange.png" r:id="rId438"/>
+    <hyperlink ref="A154" display="Linked-Container-Orange.png" r:id="rId439"/>
+    <hyperlink ref="A155" display="Linux-Container-Orange.png" r:id="rId440"/>
+    <hyperlink ref="A156" display="o_app_container.png" r:id="rId441"/>
+    <hyperlink ref="A157" display="o_app_container2.png" r:id="rId442"/>
+    <hyperlink ref="A158" display="o_app_container3.png" r:id="rId443"/>
+    <hyperlink ref="A159" display="Physical-Computer-with-App-Orange.png" r:id="rId444"/>
+    <hyperlink ref="A160" display="Physical-Machine-Orange.png" r:id="rId445"/>
+    <hyperlink ref="A161" display="Sample-App-1-in-Container-Orange.png" r:id="rId446"/>
+    <hyperlink ref="A162" display="Sample-App-2-in-Container-Orange.png" r:id="rId447"/>
+    <hyperlink ref="A163" display="Server-with-Container-Orange.png" r:id="rId448"/>
+    <hyperlink ref="A164" display="Users-Developers-Orange.png" r:id="rId449"/>
+    <hyperlink ref="A165" display="VM Type 3 with Container.png" r:id="rId450"/>
+    <hyperlink ref="A166" display="VM Type 3.png" r:id="rId451"/>
+    <hyperlink ref="A167" display="VM-Type-1-Orange.png" r:id="rId452"/>
+    <hyperlink ref="A168" display="VM-Type-2-Orange.png" r:id="rId453"/>
+    <hyperlink ref="A169" display="VM-with-App-Orange.png" r:id="rId454"/>
+    <hyperlink ref="A170" display="Windows-Container-Orange.png" r:id="rId455"/>
+    <hyperlink ref="A171" display="App.png" r:id="rId456"/>
+    <hyperlink ref="A172" display="App1InContainer.png" r:id="rId457"/>
+    <hyperlink ref="A173" display="App2InContainer.png" r:id="rId458"/>
+    <hyperlink ref="A174" display="AppInContainer.png" r:id="rId459"/>
+    <hyperlink ref="A175" display="AzureContainer.png" r:id="rId460"/>
+    <hyperlink ref="A176" display="Cloud.png" r:id="rId461"/>
+    <hyperlink ref="A177" display="ContainerManagement.png" r:id="rId462"/>
+    <hyperlink ref="A178" display="ContainersOnServer.png" r:id="rId463"/>
+    <hyperlink ref="A179" display="ContainerStorage.png" r:id="rId464"/>
+    <hyperlink ref="A180" display="LinkedContainer.png" r:id="rId465"/>
+    <hyperlink ref="A181" display="LinkedContainers.png" r:id="rId466"/>
+    <hyperlink ref="A182" display="LinuxContainer.png" r:id="rId467"/>
+    <hyperlink ref="A183" display="PhysicalComputer.png" r:id="rId468"/>
+    <hyperlink ref="A184" display="PhysicalComputerWithApp.png" r:id="rId469"/>
+    <hyperlink ref="A185" display="Users.png" r:id="rId470"/>
+    <hyperlink ref="A186" display="VM.png" r:id="rId471"/>
+    <hyperlink ref="A187" display="VMConsole.png" r:id="rId472"/>
+    <hyperlink ref="A188" display="VMwithApp.png" r:id="rId473"/>
+    <hyperlink ref="A189" display="WindowsContainer.png" r:id="rId474"/>
+    <hyperlink ref="A190" display="logs.png" r:id="rId475"/>
+    <hyperlink ref="A191" display="MarkdownTemplateForNewArticles.txt" r:id="rId476"/>
+    <hyperlink ref="A192" display="Nuget.Config" r:id="rId477"/>
+    <hyperlink ref="A193" display="nuget.exe" r:id="rId478"/>
+    <hyperlink ref="A194" display="onboarding.txt" r:id="rId479"/>
+    <hyperlink ref="A195" display="smsnotes.txt" r:id="rId480"/>
+    <hyperlink ref="A196" display="stuff.txt" r:id="rId481"/>
+    <hyperlink ref="A197" display="center.json" r:id="rId482"/>
+    <hyperlink ref="A198" display="Docset.json" r:id="rId483"/>
+    <hyperlink ref="A199" display="ContainerNodeTitles.csv" r:id="rId484"/>
+    <hyperlink ref="A200" display="failure.txt" r:id="rId485"/>
+    <hyperlink ref="A201" display="StandardCheckpoints.png" r:id="rId486"/>
+    <hyperlink ref="A202" display="Docset.json" r:id="rId487"/>
+    <hyperlink ref="A203" display="10.png" r:id="rId488"/>
+    <hyperlink ref="A204" display="2.png" r:id="rId489"/>
+    <hyperlink ref="A205" display="3.png" r:id="rId490"/>
+    <hyperlink ref="A206" display="4.png" r:id="rId491"/>
+    <hyperlink ref="A207" display="5.png" r:id="rId492"/>
+    <hyperlink ref="A208" display="6.png" r:id="rId493"/>
+    <hyperlink ref="A209" display="7.png" r:id="rId494"/>
+    <hyperlink ref="A210" display="8.png" r:id="rId495"/>
+    <hyperlink ref="A211" display="9.png" r:id="rId496"/>
+    <hyperlink ref="A212" display="All_ContentTypeIcons_VisualWalkthrough_65.png" r:id="rId497"/>
+    <hyperlink ref="A213" display="Chat_65.png" r:id="rId498"/>
+    <hyperlink ref="A214" display="develop.png" r:id="rId499"/>
+    <hyperlink ref="A215" display="MeetsRequirements_65.png" r:id="rId500"/>
+    <hyperlink ref="A216" display="whats_new.png" r:id="rId501"/>
+    <hyperlink ref="A217" display="applied_production.png" r:id="rId502"/>
+    <hyperlink ref="A218" display="coreinfo.png" r:id="rId503"/>
+    <hyperlink ref="A219" display="EnhancedEn.png" r:id="rId504"/>
+    <hyperlink ref="A220" display="EnhancedNA.png" r:id="rId505"/>
+    <hyperlink ref="A221" display="new_vm.png" r:id="rId506"/>
+    <hyperlink ref="A222" display="new_vm2.png" r:id="rId507"/>
+    <hyperlink ref="A223" display="POSH_CP.png" r:id="rId508"/>
+    <hyperlink ref="A224" display="production_off.png" r:id="rId509"/>
+    <hyperlink ref="A225" display="production_pop-up.png" r:id="rId510"/>
+    <hyperlink ref="A226" display="rdp.png" r:id="rId511"/>
+    <hyperlink ref="A227" display="select_export.png" r:id="rId512"/>
+    <hyperlink ref="A228" display="select_folder.png" r:id="rId513"/>
+    <hyperlink ref="A229" display="standard.png" r:id="rId514"/>
+    <hyperlink ref="A230" display="virtual_switch_manager.png" r:id="rId515"/>
+    <hyperlink ref="A231" display="vmconnect_start_button.png" r:id="rId516"/>
+    <hyperlink ref="A232" display="EnterCreds.PNG" r:id="rId517"/>
+    <hyperlink ref="A233" display="HyperVManager-ConnectToRemoteHostWin8.PNG" r:id="rId518"/>
+    <hyperlink ref="A234" display="TOC.csv" r:id="rId519"/>
+    <hyperlink ref="A235" display="ContainerCreationLifeCycle.PNG" r:id="rId520"/>
+    <hyperlink ref="A236" display="containers._2.png" r:id="rId521"/>
+    <hyperlink ref="A237" display="devCreateDeployManage.png" r:id="rId522"/>
+    <hyperlink ref="A238" display="devops.png" r:id="rId523"/>
+    <hyperlink ref="A239" display="ImageCreationLifeCycle.PNG" r:id="rId524"/>
+    <hyperlink ref="A240" display="isolationSpectrum.png" r:id="rId525"/>
+    <hyperlink ref="A241" display="overheadSpectrum.png" r:id="rId526"/>
+    <hyperlink ref="A242" display="WindowsServerContainer.png" r:id="rId527"/>
+    <hyperlink ref="A243" display="Docset.json" r:id="rId528"/>
+    <hyperlink ref="A244" display="1.png" r:id="rId529"/>
+    <hyperlink ref="A245" display="explore.png" r:id="rId530"/>
+    <hyperlink ref="A246" display="question.png" r:id="rId531"/>
+    <hyperlink ref="A247" display="try.png" r:id="rId532"/>
+    <hyperlink ref="A248" display="App-in-Container-Green.png" r:id="rId533"/>
+    <hyperlink ref="A249" display="AzureGallery.PNG" r:id="rId534"/>
+    <hyperlink ref="A250" display="AzurePorts.PNG" r:id="rId535"/>
+    <hyperlink ref="A251" display="ContainerHost.PNG" r:id="rId536"/>
+    <hyperlink ref="A252" display="ContainerHost_ready.PNG" r:id="rId537"/>
+    <hyperlink ref="A253" display="create_vm.PNG" r:id="rId538"/>
+    <hyperlink ref="A254" display="create_vm2.PNG" r:id="rId539"/>
+    <hyperlink ref="A255" display="create_vm3.PNG" r:id="rId540"/>
+    <hyperlink ref="A256" display="create_vm4.png" r:id="rId541"/>
+    <hyperlink ref="A257" display="create_vm6.PNG" r:id="rId542"/>
+    <hyperlink ref="A258" display="create_vm7.PNG" r:id="rId543"/>
+    <hyperlink ref="A259" display="CreateAzureVM.PNG" r:id="rId544"/>
+    <hyperlink ref="A260" display="docker2.png" r:id="rId545"/>
+    <hyperlink ref="A261" display="docker3.png" r:id="rId546"/>
+    <hyperlink ref="A262" display="docker4.png" r:id="rId547"/>
+    <hyperlink ref="A263" display="dockerfile.png" r:id="rId548"/>
+    <hyperlink ref="A264" display="kanban.jpg" r:id="rId549"/>
+    <hyperlink ref="A265" display="newazure4.png" r:id="rId550"/>
+    <hyperlink ref="A266" display="newazure5.png" r:id="rId551"/>
+    <hyperlink ref="A267" display="newazure8.png" r:id="rId552"/>
+    <hyperlink ref="A268" display="Users-Developers-Green.png" r:id="rId553"/>
+    <hyperlink ref="A269" display="Windows-Green.png" r:id="rId554"/>
+    <hyperlink ref="A270" display="index.html" r:id="rId555"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
